--- a/TSP/Solutions/NN.xlsx
+++ b/TSP/Solutions/NN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1463,6 +1463,2022 @@
         <v>16557</v>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>[ 8  0  7 37 30 45 14 39 11 32 43 17  6 35 27  5 29 36 18 26 42 16 19 10
+ 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>13251</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>[44 34  9 23 41 25  3  1 28  4 47 38 31 24 13 12 20 46 10 22 33  2 21 15
+ 40 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>13414</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>[20 46 12 24 13 22 10 11 19 32 14 39  2 33 38 31 47  4 28 41 23  9 25  3
+ 34 44  1 40 21 15  0  8 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>13454</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>[41  9 23 47  4 28  1 25  3 34 44 31 38 24 13 33 12 20 46 10 22  2 40 15
+ 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>[30 43 17  6 35 27 45 37  8  0  7 39 14 32 11 19 10 22  2 21 15 40 33 13
+ 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>13551</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>[38 31 20 12 24 13 22 10 46 19 11 14 39  2 33 47  4 28 41 23  9 25  3 34
+ 44  1 40 21 15  0  8 32 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>13561</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>[37 30 43 45 14  8  0  7 39 11 32 17  6 35 27  5 29 36 18 26 42 16 19 10
+ 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>13666</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>[19 32 11 14 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  8 39 10 46 20
+ 12 22 13 24 38 31 47  4 33  2 21  0  7 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>13848</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>[31 38 20 12 24 13 22 10 46 19 11 14 32 45 39  2 33 47  4 41 23  9 34 44
+ 25  3 28  1 40 21 15  0  8 37 30 43 17 35  6 27 29 42 26  5 36 18 16  7]</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>[15 21  2  0  7  8 39 14 11 10 22 13 33 40 24 12 46 19 32 45 37 30 43 17
+  6 35 27  5 29 36 18 26 42 16 20 38 47  4 28  1 41 31 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>13931</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>[ 1 28  4 47 41 25  3  9 23 34 44 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>13953</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>[ 7  0  8 37 30 43 45 14 39 21 15  2 22 10 11 32 19 46 12 13 33 40 24 20
+ 38 31 47  4 28  1 41 23  9 25  3 34 44 35 17  6 27  5 29 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>[34 44  9 25  3 41 23 47  4 28  1 38 31 24 13 12 20 46 10 22 33 40  2 21
+ 15 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>14039</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>[ 9 23 41 25  3 34 44 47  4 28  1 38 31 24 13 12 20 46 10 22 33  2 40 15
+ 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>14046</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>[25  3  9 41 23 34 44  1 28  4 47 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>14076</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>[33 13 24 12 22  2 21 15 40 28  4 47 38 31 20 46 10 11 14 39  0  8  7 37
+ 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16 41  1 25  3  9 23 34 44]</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>14273</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>[39 14 11 10 22  2 21  0  8 37 45 32 19 46 12 13 24 33 15  7 30 43 17 35
+  6 27  5 29 36 18 26 42 16 20 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>14377</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>[ 3 25  9 34 44 41 23 47  4 28  1 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>14378</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>[29  5 36 18 26 42 16 27  6 35 17 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>14406</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>[23  9 41 47  4 38 31 20 24 13 12 22 10 46 19 11 14 39  2 33 28  1 25  3
+ 34 44 40 15 21  0  8 32 45 35 17  6 27 29 42 26  5 36 18 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>14453</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>[24 13 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>[42 26 18 36  5 29 16 27 35  6 17 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>[16 26 18 36  5 29 42 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>14506</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>[ 6 17 35 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39 37  8  0
+  7 21  2 22 12 20 24 13 33 15 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>14516</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>[21 15  2  0  8 39 14 11 10 22 13 33 40  7 37 30 45 32 19 46 12 24 20 38
+ 31 47  4 28  1 41  9 23 25  3 34 44 43 17  6 35 27  5 29 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>14525</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>[13 24 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>14536</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>[32 45 14 11 19 46 10 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 16 22
+ 12 20 24 13  2 21  0  7 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>14554</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>[26 18 36  5 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>[ 5 36 18 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>14579</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>[47  4 28 41  9 23 38 31 24 13 12 20 46 10 22 33  2 21 15 40  1 25  3 34
+ 44 11 14 39  8  0  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>14672</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>[36 18  5 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>[ 0  8  7 21 15  2 39 14 11 32 45 37 30 43 17  6 35 27  5 29 36 18 26 42
+ 19 10 22 13 33 40 24 12 46 20 38 31 47  4 28  1 41 23  9 25  3 34 44 16]</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>[ 2 21 15  0 39 22 10 11 14  8  7 37 45 32 19 46 12 13 33 40 24 20 38 31
+ 47  4 28  1 41  9 23 25  3 34 44 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>14701</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>[18 36  5 26 42 29 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>[28  4 47 41  1 33 13 24 12 22  2 40 15 21  0 39 10 46 20 38 31 23  9 25
+  3 34 44 11 14 32 19 45  8  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>14740</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>[11 14 32 45 19 10 22 39  8  0 21  2 13 12 46 20 24 33 15  7 37 30 43 17
+ 35  6 27 29  5 36 18 26 42 16 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>14827</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>[35 17  6 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
+  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>[46 10 11 19 32 14 39 22 12 20 24 13  2 21  0  8 45 35 17  6 27 29  5 36
+ 18 26 42 16 43 30 37  7 15 33 38 31 47  4 28 40 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>[27  6 17 35  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
+  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>15043</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>[ 4 47 28 41  9 23 38 31 24 13 33 22 12 20 46 10  2 21 15 40  1 25  3 34
+ 44 11 14 39  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>15102</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>[17  6 35 27 43 30 45 32 14 11 19 29  5 36 18 26 42 16 37  8 39  0  7 21
+  2 10 46 12 22 13 24 20 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>[14 11 32 45 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 19 10 22  2 21
+  0  7 15 13 12 46 20 24 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44 16]</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>15509</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>[10 22 12 46 11 14 39 32 19 45  8  0 21  2 13 24 20 38 31 47  4 33 15  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>15538</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>[12 24 13 22 10 46 20 38 31 47  4 33  2 39 11 14 32 19 45  8  0 21 15 40
+ 28 41 23  9 25  3  1 34 44 35 17 43 30 37  7  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>15539</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>[40 33  2 21 15  0  8 39 22 13 24 12 10 11 14 32 45 37  7 30 43 17 35  6
+ 27 19 46 20 38 47  4 28  1 41  9 23 31 25  3 34 44 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>15542</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>[45 32 14 11 19 35 17 43 30 37  8 39 10 22 46 12 13 24 20  6 27  5 29 36
+ 18 26 42 16  0  7 21  2 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>15705</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>[22 10 12 13 24 33  2 21 39 14 11 46 20 38 31 47  4 28 40 15  0  8 37 45
+ 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16  7 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>15725</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>[43 17  6 35 27 30 45 32 14 11 19 37  8 39  0  7 21  2 10 46 12 22 13 24
+ 20 29  5 36 18 26 42 16 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>16557</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>[ 8  0  7 37 30 45 14 39 11 32 43 17  6 35 27  5 29 36 18 26 42 16 19 10
+ 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>13251</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>[44 34  9 23 41 25  3  1 28  4 47 38 31 24 13 12 20 46 10 22 33  2 21 15
+ 40 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>13414</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>[20 46 12 24 13 22 10 11 19 32 14 39  2 33 38 31 47  4 28 41 23  9 25  3
+ 34 44  1 40 21 15  0  8 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>13454</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>[41  9 23 47  4 28  1 25  3 34 44 31 38 24 13 33 12 20 46 10 22  2 40 15
+ 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>[30 43 17  6 35 27 45 37  8  0  7 39 14 32 11 19 10 22  2 21 15 40 33 13
+ 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>13551</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>[38 31 20 12 24 13 22 10 46 19 11 14 39  2 33 47  4 28 41 23  9 25  3 34
+ 44  1 40 21 15  0  8 32 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>13561</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>[37 30 43 45 14  8  0  7 39 11 32 17  6 35 27  5 29 36 18 26 42 16 19 10
+ 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13666</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>[19 32 11 14 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  8 39 10 46 20
+ 12 22 13 24 38 31 47  4 33  2 21  0  7 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13848</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>[31 38 20 12 24 13 22 10 46 19 11 14 32 45 39  2 33 47  4 41 23  9 34 44
+ 25  3 28  1 40 21 15  0  8 37 30 43 17 35  6 27 29 42 26  5 36 18 16  7]</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>[15 21  2  0  7  8 39 14 11 10 22 13 33 40 24 12 46 19 32 45 37 30 43 17
+  6 35 27  5 29 36 18 26 42 16 20 38 47  4 28  1 41 31 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>13931</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>[ 1 28  4 47 41 25  3  9 23 34 44 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>13953</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>[ 7  0  8 37 30 43 45 14 39 21 15  2 22 10 11 32 19 46 12 13 33 40 24 20
+ 38 31 47  4 28  1 41 23  9 25  3 34 44 35 17  6 27  5 29 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>[34 44  9 25  3 41 23 47  4 28  1 38 31 24 13 12 20 46 10 22 33 40  2 21
+ 15 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>14039</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>[ 9 23 41 25  3 34 44 47  4 28  1 38 31 24 13 12 20 46 10 22 33  2 40 15
+ 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>14046</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>[25  3  9 41 23 34 44  1 28  4 47 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>14076</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>[33 13 24 12 22  2 21 15 40 28  4 47 38 31 20 46 10 11 14 39  0  8  7 37
+ 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16 41  1 25  3  9 23 34 44]</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>14273</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>[39 14 11 10 22  2 21  0  8 37 45 32 19 46 12 13 24 33 15  7 30 43 17 35
+  6 27  5 29 36 18 26 42 16 20 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>14377</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>[ 3 25  9 34 44 41 23 47  4 28  1 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>14378</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>[29  5 36 18 26 42 16 27  6 35 17 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>14406</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>[23  9 41 47  4 38 31 20 24 13 12 22 10 46 19 11 14 39  2 33 28  1 25  3
+ 34 44 40 15 21  0  8 32 45 35 17  6 27 29 42 26  5 36 18 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>14453</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>[24 13 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>[42 26 18 36  5 29 16 27 35  6 17 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>[16 26 18 36  5 29 42 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>14506</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>[ 6 17 35 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39 37  8  0
+  7 21  2 22 12 20 24 13 33 15 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>14516</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>[21 15  2  0  8 39 14 11 10 22 13 33 40  7 37 30 45 32 19 46 12 24 20 38
+ 31 47  4 28  1 41  9 23 25  3 34 44 43 17  6 35 27  5 29 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>14525</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>[13 24 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>14536</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>[32 45 14 11 19 46 10 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 16 22
+ 12 20 24 13  2 21  0  7 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>14554</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>[26 18 36  5 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>[ 5 36 18 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>14579</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>[47  4 28 41  9 23 38 31 24 13 12 20 46 10 22 33  2 21 15 40  1 25  3 34
+ 44 11 14 39  8  0  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>14672</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>[36 18  5 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>[ 0  8  7 21 15  2 39 14 11 32 45 37 30 43 17  6 35 27  5 29 36 18 26 42
+ 19 10 22 13 33 40 24 12 46 20 38 31 47  4 28  1 41 23  9 25  3 34 44 16]</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>[ 2 21 15  0 39 22 10 11 14  8  7 37 45 32 19 46 12 13 33 40 24 20 38 31
+ 47  4 28  1 41  9 23 25  3 34 44 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>14701</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>[18 36  5 26 42 29 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>[28  4 47 41  1 33 13 24 12 22  2 40 15 21  0 39 10 46 20 38 31 23  9 25
+  3 34 44 11 14 32 19 45  8  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>14740</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>[11 14 32 45 19 10 22 39  8  0 21  2 13 12 46 20 24 33 15  7 37 30 43 17
+ 35  6 27 29  5 36 18 26 42 16 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>14827</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>[35 17  6 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
+  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>[46 10 11 19 32 14 39 22 12 20 24 13  2 21  0  8 45 35 17  6 27 29  5 36
+ 18 26 42 16 43 30 37  7 15 33 38 31 47  4 28 40 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>[27  6 17 35  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
+  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>15043</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>[ 4 47 28 41  9 23 38 31 24 13 33 22 12 20 46 10  2 21 15 40  1 25  3 34
+ 44 11 14 39  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>15102</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>[17  6 35 27 43 30 45 32 14 11 19 29  5 36 18 26 42 16 37  8 39  0  7 21
+  2 10 46 12 22 13 24 20 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>[14 11 32 45 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 19 10 22  2 21
+  0  7 15 13 12 46 20 24 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44 16]</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>15509</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>[10 22 12 46 11 14 39 32 19 45  8  0 21  2 13 24 20 38 31 47  4 33 15  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>15538</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>[12 24 13 22 10 46 20 38 31 47  4 33  2 39 11 14 32 19 45  8  0 21 15 40
+ 28 41 23  9 25  3  1 34 44 35 17 43 30 37  7  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>15539</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>[40 33  2 21 15  0  8 39 22 13 24 12 10 11 14 32 45 37  7 30 43 17 35  6
+ 27 19 46 20 38 47  4 28  1 41  9 23 31 25  3 34 44 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>15542</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>[45 32 14 11 19 35 17 43 30 37  8 39 10 22 46 12 13 24 20  6 27  5 29 36
+ 18 26 42 16  0  7 21  2 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>15705</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>[22 10 12 13 24 33  2 21 39 14 11 46 20 38 31 47  4 28 40 15  0  8 37 45
+ 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16  7 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>15725</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>[43 17  6 35 27 30 45 32 14 11 19 37  8 39  0  7 21  2 10 46 12 22 13 24
+ 20 29  5 36 18 26 42 16 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>16557</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TSP/Solutions/NN.xlsx
+++ b/TSP/Solutions/NN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3479,6 +3479,1014 @@
         <v>16557</v>
       </c>
     </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>[ 8  0  7 37 30 45 14 39 11 32 43 17  6 35 27  5 29 36 18 26 42 16 19 10
+ 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>13251</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>[44 34  9 23 41 25  3  1 28  4 47 38 31 24 13 12 20 46 10 22 33  2 21 15
+ 40 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>13414</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>[20 46 12 24 13 22 10 11 19 32 14 39  2 33 38 31 47  4 28 41 23  9 25  3
+ 34 44  1 40 21 15  0  8 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>13454</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>[41  9 23 47  4 28  1 25  3 34 44 31 38 24 13 33 12 20 46 10 22  2 40 15
+ 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>13525</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>[30 43 17  6 35 27 45 37  8  0  7 39 14 32 11 19 10 22  2 21 15 40 33 13
+ 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>13551</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>[38 31 20 12 24 13 22 10 46 19 11 14 39  2 33 47  4 28 41 23  9 25  3 34
+ 44  1 40 21 15  0  8 32 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>13561</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[37 30 43 45 14  8  0  7 39 11 32 17  6 35 27  5 29 36 18 26 42 16 19 10
+ 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>13666</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[19 32 11 14 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  8 39 10 46 20
+ 12 22 13 24 38 31 47  4 33  2 21  0  7 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>13848</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[31 38 20 12 24 13 22 10 46 19 11 14 32 45 39  2 33 47  4 41 23  9 34 44
+ 25  3 28  1 40 21 15  0  8 37 30 43 17 35  6 27 29 42 26  5 36 18 16  7]</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>13906</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[15 21  2  0  7  8 39 14 11 10 22 13 33 40 24 12 46 19 32 45 37 30 43 17
+  6 35 27  5 29 36 18 26 42 16 20 38 47  4 28  1 41 31 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>13931</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[ 1 28  4 47 41 25  3  9 23 34 44 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>13953</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>[ 7  0  8 37 30 43 45 14 39 21 15  2 22 10 11 32 19 46 12 13 33 40 24 20
+ 38 31 47  4 28  1 41 23  9 25  3 34 44 35 17  6 27  5 29 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>14028</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>[34 44  9 25  3 41 23 47  4 28  1 38 31 24 13 12 20 46 10 22 33 40  2 21
+ 15 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>14039</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>[ 9 23 41 25  3 34 44 47  4 28  1 38 31 24 13 12 20 46 10 22 33  2 40 15
+ 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>14046</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>[25  3  9 41 23 34 44  1 28  4 47 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>14076</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>[33 13 24 12 22  2 21 15 40 28  4 47 38 31 20 46 10 11 14 39  0  8  7 37
+ 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16 41  1 25  3  9 23 34 44]</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>14273</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>[39 14 11 10 22  2 21  0  8 37 45 32 19 46 12 13 24 33 15  7 30 43 17 35
+  6 27  5 29 36 18 26 42 16 20 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>14377</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>[ 3 25  9 34 44 41 23 47  4 28  1 38 31 24 13 33 40  2 22 12 20 46 10 11
+ 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>14378</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[29  5 36 18 26 42 16 27  6 35 17 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>14406</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>[23  9 41 47  4 38 31 20 24 13 12 22 10 46 19 11 14 39  2 33 28  1 25  3
+ 34 44 40 15 21  0  8 32 45 35 17  6 27 29 42 26  5 36 18 16 43 30 37  7]</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>14453</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>[24 13 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>14466</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>[42 26 18 36  5 29 16 27 35  6 17 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>[16 26 18 36  5 29 42 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>14506</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>[ 6 17 35 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39 37  8  0
+  7 21  2 22 12 20 24 13 33 15 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>14516</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>[21 15  2  0  8 39 14 11 10 22 13 33 40  7 37 30 45 32 19 46 12 24 20 38
+ 31 47  4 28  1 41  9 23 25  3 34 44 43 17  6 35 27  5 29 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>14525</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>[13 24 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>14536</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>[32 45 14 11 19 46 10 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 16 22
+ 12 20 24 13  2 21  0  7 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>14554</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>[26 18 36  5 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>14557</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>[ 5 36 18 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>14579</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>[47  4 28 41  9 23 38 31 24 13 12 20 46 10 22 33  2 21 15 40  1 25  3 34
+ 44 11 14 39  8  0  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>14672</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>[36 18  5 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>14680</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>[ 0  8  7 21 15  2 39 14 11 32 45 37 30 43 17  6 35 27  5 29 36 18 26 42
+ 19 10 22 13 33 40 24 12 46 20 38 31 47  4 28  1 41 23  9 25  3 34 44 16]</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>14688</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>[ 2 21 15  0 39 22 10 11 14  8  7 37 45 32 19 46 12 13 33 40 24 20 38 31
+ 47  4 28  1 41  9 23 25  3 34 44 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>14701</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>[18 36  5 26 42 29 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
+  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>14718</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>[28  4 47 41  1 33 13 24 12 22  2 40 15 21  0 39 10 46 20 38 31 23  9 25
+  3 34 44 11 14 32 19 45  8  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>14740</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>[11 14 32 45 19 10 22 39  8  0 21  2 13 12 46 20 24 33 15  7 37 30 43 17
+ 35  6 27 29  5 36 18 26 42 16 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>14827</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>[35 17  6 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
+  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>14850</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>[46 10 11 19 32 14 39 22 12 20 24 13  2 21  0  8 45 35 17  6 27 29  5 36
+ 18 26 42 16 43 30 37  7 15 33 38 31 47  4 28 40 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>14920</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>[27  6 17 35  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
+  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>15043</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>[ 4 47 28 41  9 23 38 31 24 13 33 22 12 20 46 10  2 21 15 40  1 25  3 34
+ 44 11 14 39  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>15102</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>[17  6 35 27 43 30 45 32 14 11 19 29  5 36 18 26 42 16 37  8 39  0  7 21
+  2 10 46 12 22 13 24 20 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>15484</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>[14 11 32 45 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 19 10 22  2 21
+  0  7 15 13 12 46 20 24 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44 16]</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>15509</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>[10 22 12 46 11 14 39 32 19 45  8  0 21  2 13 24 20 38 31 47  4 33 15  7
+ 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>15538</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>[12 24 13 22 10 46 20 38 31 47  4 33  2 39 11 14 32 19 45  8  0 21 15 40
+ 28 41 23  9 25  3  1 34 44 35 17 43 30 37  7  6 27 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>15539</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>[40 33  2 21 15  0  8 39 22 13 24 12 10 11 14 32 45 37  7 30 43 17 35  6
+ 27 19 46 20 38 47  4 28  1 41  9 23 31 25  3 34 44 29  5 36 18 26 42 16]</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>15542</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>[45 32 14 11 19 35 17 43 30 37  8 39 10 22 46 12 13 24 20  6 27  5 29 36
+ 18 26 42 16  0  7 21  2 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>15705</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>[22 10 12 13 24 33  2 21 39 14 11 46 20 38 31 47  4 28 40 15  0  8 37 45
+ 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16  7 41 23  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>15725</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>48 miast</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>[43 17  6 35 27 30 45 32 14 11 19 37  8 39  0  7 21  2 10 46 12 22 13 24
+ 20 29  5 36 18 26 42 16 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>16557</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TSP/Solutions/NN.xlsx
+++ b/TSP/Solutions/NN.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D193"/>
+  <dimension ref="A1:D252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1471,17 +1471,19 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[ 8  0  7 37 30 45 14 39 11 32 43 17  6 35 27  5 29 36 18 26 42 16 19 10
- 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+          <t>[ 6  7  5  2  3  4  8  9 19 18 30 29 28 25 26 27 31 32 34 35 36 17 16 10
+ 11 12 13 14 15 73  1  0 22 21 20 24 23 45 44 43 47 42 41 53 52 51 48 49
+ 50 54 33 37 38 39 40 59 58 57 56 55 65 64 60 61 62 63 70 71 72 46 68 67
+ 66 69 74 75]</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>13251</v>
+        <v>145385.2631931559</v>
       </c>
     </row>
     <row r="51">
@@ -1492,17 +1494,19 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[44 34  9 23 41 25  3  1 28  4 47 38 31 24 13 12 20 46 10 22 33  2 21 15
- 40 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+          <t>[73 13 12 14 15 11 10  8  9  5  7  6  4 19 18 30 29 16 17 36 35 34 37 38
+ 33 31 32 28  3  2  1  0 22 21 20 24 23 25 26 27 42 41 53 52 39 40 59 58
+ 57 60 61 56 54 55 51 48 49 50 65 64 62 63 71 72 70 43 47 44 45 46 68 67
+ 66 69 74 75]</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>13414</v>
+        <v>145547.0760752503</v>
       </c>
     </row>
     <row r="52">
@@ -1513,17 +1517,19 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[20 46 12 24 13 22 10 11 19 32 14 39  2 33 38 31 47  4 28 41 23  9 25  3
- 34 44  1 40 21 15  0  8 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+          <t>[ 7  6  5  8  9  4  2  3 19 18 30 29 28 31 32 10 11 12 13 14 15 16 17 36
+ 35 34 33 37 38 39 40 59 58 27 25 26 20 24 21 22  1  0 74 75 23 45 44 43
+ 47 42 41 53 52 51 54 55 57 56 60 61 62 63 50 48 49 65 64 46 68 67 66 69
+ 70 71 72 73]</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>13454</v>
+        <v>147392.4889724414</v>
       </c>
     </row>
     <row r="53">
@@ -1534,17 +1540,19 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[41  9 23 47  4 28  1 25  3 34 44 31 38 24 13 33 12 20 46 10 22  2 40 15
- 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[72 71 70 63 62 56 61 60 57 58 59 40 39 55 54 50 65 64 49 48 51 52 53 41
+ 42 27 32 33 38 37 34 31 28 26 25 29 30 18 19 35 36 17 16 10 15 14 11  9
+  8  4  3  2  5  6  7 12 13 73 43 47 46 66 67 68 69 44 45 23 24 20 21 22
+  0  1 74 75]</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>13525</v>
+        <v>147683.3926641953</v>
       </c>
     </row>
     <row r="54">
@@ -1555,17 +1563,19 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[30 43 17  6 35 27 45 37  8  0  7 39 14 32 11 19 10 22  2 21 15 40 33 13
- 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44 29  5 36 18 26 42 16]</t>
+          <t>[ 3  2  5  4 19 18 30 29 28 25 26 27 31 32  9  8  6  7  1  0 22 21 20 24
+ 23 45 44 43 47 46 42 41 53 52 51 48 49 50 54 55 33 34 35 36 17 16 10 11
+ 12 13 14 15 37 38 39 40 59 58 57 56 60 61 62 63 65 64 66 67 68 69 70 71
+ 72 73 74 75]</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>13551</v>
+        <v>147883.8812014096</v>
       </c>
     </row>
     <row r="55">
@@ -1576,17 +1586,19 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[38 31 20 12 24 13 22 10 46 19 11 14 39  2 33 47  4 28 41 23  9 25  3 34
- 44  1 40 21 15  0  8 32 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+          <t>[71 72 70 63 62 56 61 60 57 55 54 50 65 64 49 48 51 52 53 41 42 58 59 40
+ 39 33 38 37 34 32 31 27 28 26 25 29 30 18 19 35 36 17 16 10 15 14 11  9
+  8  4  3  2  5  6  7 12 13 73 43 47 46 66 67 68 69 44 45 23 24 20 21 22
+  0  1 74 75]</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>13561</v>
+        <v>148053.5275584819</v>
       </c>
     </row>
     <row r="56">
@@ -1597,17 +1609,19 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[37 30 43 45 14  8  0  7 39 11 32 17  6 35 27  5 29 36 18 26 42 16 19 10
- 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+          <t>[28 29 30 18 19 25 26 27 32 31 34 33 42 41 53 52 51 54 55 50 48 49 47 43
+ 44 45 23 24 20 21  3  4  9  8  5  2  6  7 10 16 17 36 35 37 38 39 40 59
+ 58 57 56 60 61 62 63 65 64 46 68 67 66 69 70 71 72 15 14 11 12 13 73  1
+  0 22 74 75]</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>13666</v>
+        <v>148276.0809633778</v>
       </c>
     </row>
     <row r="57">
@@ -1618,17 +1632,19 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[19 32 11 14 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  8 39 10 46 20
- 12 22 13 24 38 31 47  4 33  2 21  0  7 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[35 36 17 16 34 37 38 33 39 40 59 58 32 31 28 29 30 18 19  4  9 10 15 14
+ 11 12 13  8  5  6  7  2  3 25 27 42 41 53 52 51 54 57 60 61 56 55 50 48
+ 49 26 24 20 21 23 45 44 43 47 46 68 67 66 65 64 62 63 70 71 72 69 22  0
+  1 74 75 73]</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>13848</v>
+        <v>148883.8936464717</v>
       </c>
     </row>
     <row r="58">
@@ -1639,17 +1655,19 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[31 38 20 12 24 13 22 10 46 19 11 14 32 45 39  2 33 47  4 41 23  9 34 44
- 25  3 28  1 40 21 15  0  8 37 30 43 17 35  6 27 29 42 26  5 36 18 16  7]</t>
+          <t>[49 48 51 50 65 64 55 54 52 53 41 42 27 26 25 28 32 31 33 39 40 59 58 57
+ 56 62 63 61 60 38 37 34 35 36 17 16 29 30 18 19 43 47 46 68 67 66 44 45
+ 23 24 20 21 22  3  4  9  8  5  2  6  7 10 11 15 14 12 13 73  1  0 74 75
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>13906</v>
+        <v>149951.3789262703</v>
       </c>
     </row>
     <row r="59">
@@ -1660,17 +1678,19 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[15 21  2  0  7  8 39 14 11 10 22 13 33 40 24 12 46 19 32 45 37 30 43 17
-  6 35 27  5 29 36 18 26 42 16 20 38 47  4 28  1 41 31 23  9 25  3 34 44]</t>
+          <t>[29 30 18 19 28 25 26 27 31 32 42 41 53 52 51 48 49 50 54 55 57 58 59 40
+ 39 33 34 35 36 17 16 10  9  4  3  2  5  8 11 12 13 14 15 37 38 60 61 56
+ 62 63 65 64 47 43 44 45 24 20 23 21 22  0  1  6  7 73 74 75 46 68 67 66
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>13931</v>
+        <v>150189.7443123694</v>
       </c>
     </row>
     <row r="60">
@@ -1681,17 +1701,19 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[ 1 28  4 47 41 25  3  9 23 34 44 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[36 35 17 16 10 15 14 11  9  8  4 19 18 30 29 31 34 37 38 33 39 40 59 58
+ 32 28 27 42 41 53 52 51 54 57 60 61 56 55 50 48 49 26 25  3  5  6  7 12
+ 13 73  2 20 24 23 21 22  0  1 74 75 45 44 43 47 46 68 67 66 65 64 62 63
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>13953</v>
+        <v>150534.1413695918</v>
       </c>
     </row>
     <row r="61">
@@ -1702,17 +1724,19 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[ 7  0  8 37 30 43 45 14 39 21 15  2 22 10 11 32 19 46 12 13 33 40 24 20
- 38 31 47  4 28  1 41 23  9 25  3 34 44 35 17  6 27  5 29 36 18 26 42 16]</t>
+          <t>[63 62 56 61 60 57 58 59 40 39 54 55 50 65 64 70 71 72 51 52 53 41 42 27
+ 32 33 38 37 34 31 28 26 25 48 49 66 67 68 46 47 43 44 45 23 24 20 29 30
+ 18 19 35 36 17 16 10 15 14 11  9  8  4  3  2  5  6  7 12 13 73  1  0 21
+ 22 74 75 69]</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>14028</v>
+        <v>151097.6636872906</v>
       </c>
     </row>
     <row r="62">
@@ -1723,17 +1747,19 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[34 44  9 25  3 41 23 47  4 28  1 38 31 24 13 12 20 46 10 22 33 40  2 21
- 15 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+          <t>[65 64 50 49 48 51 55 54 52 53 41 42 27 26 25 28 32 31 33 39 40 59 58 57
+ 56 62 63 61 60 70 71 72 66 67 68 46 47 43 44 45 23 24 20 29 30 18 19  4
+  3  2  5  9 34 38 37 35 36 17 16 10 11  8  6  7 21 22  0  1 15 14 12 13
+ 73 74 75 69]</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>14039</v>
+        <v>151600.6313756159</v>
       </c>
     </row>
     <row r="63">
@@ -1744,17 +1770,19 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[ 9 23 41 25  3 34 44 47  4 28  1 38 31 24 13 12 20 46 10 22 33  2 40 15
- 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[55 54 50 51 52 53 41 42 27 32 57 56 62 63 61 60 58 59 40 39 33 34 31 28
+ 26 25 48 49 65 64 70 71 72 66 67 68 46 47 43 44 45 23 24 20 29 30 18 19
+  4  9 35 37 38 36 17 16 10 15 14 11  8  5  3  2  6  7 12 13 73 21 22  0
+  1 74 75 69]</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14046</v>
+        <v>151862.9177007766</v>
       </c>
     </row>
     <row r="64">
@@ -1765,17 +1793,19 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[25  3  9 41 23 34 44  1 28  4 47 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[15 14 12 13 11 10 16 17 36 35 34 37 38 33 31 32 28 30 18  9  8  5  4 19
+ 29 27 42 41 53 52 39 40 59 58 57 60 61 56 54 55 51 26 25  3  2  6  7 73
+  1  0 22 21 20 24 23 45 44 43 47 46 48 49 50 65 64 62 63 71 72 70 66 67
+ 68 69 74 75]</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>14076</v>
+        <v>152555.726876789</v>
       </c>
     </row>
     <row r="65">
@@ -1786,17 +1816,19 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[33 13 24 12 22  2 21 15 40 28  4 47 38 31 20 46 10 11 14 39  0  8  7 37
- 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16 41  1 25  3  9 23 34 44]</t>
+          <t>[70 71 72 63 62 56 55 64 65 50 54 57 61 60 58 59 40 39 33 51 49 48 52 53
+ 41 42 27 32 31 34 38 37 35 36 17 16 28 26 25 29 30 18 19  4  9 10 15 14
+ 11  8  5  3  2 24 43 47 46 66 67 68 69 44 45 23 20 21 22  0  1  6  7 12
+ 13 73 74 75]</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>14273</v>
+        <v>152573.2229063206</v>
       </c>
     </row>
     <row r="66">
@@ -1807,17 +1839,19 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[39 14 11 10 22  2 21  0  8 37 45 32 19 46 12 13 24 33 15  7 30 43 17 35
-  6 27  5 29 36 18 26 42 16 20 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+          <t>[ 8  9  4  5  6  7 11 10 16 17 36 35 34 18 19  3  2 30 29 28 31 32 27 25
+ 26 42 41 53 52 33 37 38 15 14 12 13 73  1  0 22 21 20 24 23 45 44 43 47
+ 46 48 51 54 39 40 59 58 57 60 61 56 55 50 49 65 64 62 63 70 71 72 66 67
+ 68 69 74 75]</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>14377</v>
+        <v>153110.3589986357</v>
       </c>
     </row>
     <row r="67">
@@ -1828,17 +1862,19 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[ 3 25  9 34 44 41 23 47  4 28  1 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[39 40 59 58 57 60 61 56 54 55 33 38 37 34 35 36 17 16 31 32 27 42 41 53
+ 52 51 50 65 64 62 63 70 71 72 49 48 26 28 29 30 18 19  4  9 10 15 14 11
+  8  5  3  2 25 43 47 46 44 45 23 24 20 21 22  0  1  6  7 12 13 73 74 75
+ 68 67 66 69]</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>14378</v>
+        <v>153179.1371652345</v>
       </c>
     </row>
     <row r="68">
@@ -1849,17 +1885,19 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[29  5 36 18 26 42 16 27  6 35 17 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[21 20 24 23 22  0  1  2  3  4 19 18 30 29 25 26 28 27 42 41 53 52 43 44
+ 45 47 46 68 67 66 48 49 51 50 54 55 32 31 34 33 35 36 17 16  9  5  6  7
+  8 11 10 15 14 12 13 73 74 75 37 38 39 40 59 58 57 56 65 64 62 61 60 63
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>14406</v>
+        <v>153563.4617826078</v>
       </c>
     </row>
     <row r="69">
@@ -1870,17 +1908,19 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[23  9 41 47  4 38 31 20 24 13 12 22 10 46 19 11 14 39  2 33 28  1 25  3
- 34 44 40 15 21  0  8 32 45 35 17  6 27 29 42 26  5 36 18 16 43 30 37  7]</t>
+          <t>[10 11 12 13 14 15 16 17 36 35 34 37 38 33 31 32 30 18  9  8  5  4 19 29
+ 28 27 25 26 42 41 53 52 51 54 39 40 59 58 57 60 61 56 55 50 48 49 65 64
+ 62 63  3  2  6  7  1  0 22 21 20 24 23 45 44 43 47 46 68 67 66 69 70 71
+ 72 73 74 75]</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>14453</v>
+        <v>154709.4463305603</v>
       </c>
     </row>
     <row r="70">
@@ -1891,17 +1931,19 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[24 13 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[52 53 41 42 51 48 49 50 54 55 65 64 56 57 58 59 40 39 33 32 27 26 25 28
+ 31 34 35 36 17 16 37 38 60 61 62 63 70 71 72 66 67 68 47 43 46 44 45 23
+ 24 20 29 30 18 19  4  3  2  5  9  8 10 11 15 14 12 13  6  7 21 22  0  1
+ 74 75 73 69]</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>14466</v>
+        <v>155430.1607883215</v>
       </c>
     </row>
     <row r="71">
@@ -1912,17 +1954,19 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[42 26 18 36  5 29 16 27 35  6 17 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[75 74  0  1 22 21 20 24 23  2  3  6  7  5  4 19 18 30 29 28 25 26 27 31
+ 32  9  8 11 12 13 10 16 17 36 35 34 33 42 41 53 52 43 44 45 47 46 68 67
+ 66 48 49 51 50 54 55 57 58 59 40 39 38 37 15 14 73 60 61 56 62 63 65 64
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>14500</v>
+        <v>155538.2151875761</v>
       </c>
     </row>
     <row r="72">
@@ -1933,17 +1977,19 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[16 26 18 36  5 29 42 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[62 63 56 61 60 57 58 59 40 39 54 55 50 65 64 51 52 53 41 42 27 32 33 38
+ 37 34 31 28 26 25 48 49 70 71 72 66 67 68 46 47 43 44 45 23 24 20 29 30
+ 18 19 35 36 17 16 10 15 14 11  9  8  4  3  2  5  6  7 12 13 73  1  0 21
+ 22 74 75 69]</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>14506</v>
+        <v>155583.5858554482</v>
       </c>
     </row>
     <row r="73">
@@ -1954,17 +2000,19 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[ 6 17 35 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39 37  8  0
-  7 21  2 22 12 20 24 13 33 15 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[20 24 23 21 22  0  1  3  2  4 19 18 30 29 25 26 28 27 42 41 53 52 43 44
+ 45 47 46 68 67 66 48 49 51 50 54 55 32 31 34 33 35 36 17 16  9  5  6  7
+  8 10 11 12 13 14 15 37 38 39 40 59 58 57 56 60 61 62 63 65 64 70 71 72
+ 69 74 75 73]</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>14516</v>
+        <v>155896.4370703943</v>
       </c>
     </row>
     <row r="74">
@@ -1975,17 +2023,19 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[21 15  2  0  8 39 14 11 10 22 13 33 40  7 37 30 45 32 19 46 12 24 20 38
- 31 47  4 28  1 41  9 23 25  3 34 44 43 17  6 35 27  5 29 36 18 26 42 16]</t>
+          <t>[38 37 35 36 17 34 33 39 40 59 58 57 60 61 56 54 55 51 53 41 32 31 28 27
+ 42 52 50 65 64 62 63 71 72 70 49 48 26 25 29 30 18 19 16 10 15 14 11  9
+  8  4  5  6  7 12 13 73  3  2 20 24 23 21 22  0  1 45 44 43 47 46 68 67
+ 66 69 74 75]</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>14525</v>
+        <v>156068.9142350443</v>
       </c>
     </row>
     <row r="75">
@@ -1996,17 +2046,19 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[13 24 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[14 15 12 13 11 10 16 17 36 35 34 37 38 33 31 32 30 18  9  8  5  6  7  4
+ 19 29 28 27 25 26 42 41 53 52 39 40 59 58 57 60 61 56 54 55 51 50 48 49
+ 65 64 62 63 71 72 70  3  2  1  0 22 21 20 24 23 45 44 43 47 46 68 67 66
+ 69 73 74 75]</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>14536</v>
+        <v>156286.0081257614</v>
       </c>
     </row>
     <row r="76">
@@ -2017,17 +2069,19 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[32 45 14 11 19 46 10 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 16 22
- 12 20 24 13  2 21  0  7 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[11 10 12 13 14 15 16 17 36 35  9  8  5  6  7  4 19 18 30 29 28 31 34 37
+ 38 33 32 27 25 26  3  2  1  0 22 21 20 24 23 45 44 43 47 42 41 53 52 51
+ 54 39 40 59 58 57 60 61 56 55 50 48 49 65 64 62 63 70 71 72 66 67 46 68
+ 69 73 74 75]</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>14554</v>
+        <v>156788.8865284974</v>
       </c>
     </row>
     <row r="77">
@@ -2038,17 +2092,19 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[26 18 36  5 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 4 19 18 30 29 28 31  9  8  5  6  7  2  3 10 11 12 13 14 15 16 17 36 35
+ 34 32 27 25 26 42 41 53 52 51 54 33 37 38 39 40 59 58 57 56 55 50 48 49
+ 43 47 44 24 20 21 22  0  1 23 45 46 68 67 66 65 64 62 60 61 63 70 71 72
+ 69 74 75 73]</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>14557</v>
+        <v>157580.0607245753</v>
       </c>
     </row>
     <row r="78">
@@ -2059,17 +2115,19 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[ 5 36 18 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[40 59 58 39 33 38 37 34 35 36 17 16 31 32 27 42 41 53 52 54 57 60 61 56
+ 62 63 55 51 50 65 64 49 48 26 28 29 30 18 19  4  9 10 15 14 11  8  5  3
+  2 25 43 47 46 44 45 23 24 20 21 22  0  1  6  7 12 13 73 74 75 68 67 66
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>14579</v>
+        <v>157696.6295946882</v>
       </c>
     </row>
     <row r="79">
@@ -2080,17 +2138,19 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[47  4 28 41  9 23 38 31 24 13 12 20 46 10 22 33  2 21 15 40  1 25  3 34
- 44 11 14 39  8  0  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[69 66 67 68 46 47 43 44 45 49 48 65 64 50 51 52 53 41 42 27 26 25 28 29
+ 30 18 19 31 32 54 55 56 62 63 70 71 72 61 57 58 59 40 39 33 34 38 37 35
+ 36 17 16 10  9  4  3 24 23 20 21 22  0  1  2  5  6  7  8 11 15 14 12 13
+ 60 73 74 75]</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>14672</v>
+        <v>158174.1103063297</v>
       </c>
     </row>
     <row r="80">
@@ -2101,17 +2161,19 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[36 18  5 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[59 58 40 39 33 38 37 34 32 31 27 42 41 53 52 54 57 60 61 56 62 63 55 51
+ 50 65 64 49 48 26 28 29 30 18 19 35 36 17 16 10 15 14 11  9  8  4  5  3
+ 25 43 47 46 44 45 23 24 20 21 22  2  6  7 12 13 73  1  0 74 75 68 67 66
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>14680</v>
+        <v>158576.7174230095</v>
       </c>
     </row>
     <row r="81">
@@ -2122,17 +2184,19 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[ 0  8  7 21 15  2 39 14 11 32 45 37 30 43 17  6 35 27  5 29 36 18 26 42
- 19 10 22 13 33 40 24 12 46 20 38 31 47  4 28  1 41 23  9 25  3 34 44 16]</t>
+          <t>[30 18 29 28 31 32 27 25 26 19  4  9  8  5  3  2  6  7 10 16 17 36 35 34
+ 33 39 40 59 58 42 41 53 52 51 54 55 57 56 60 61 38 37 15 14 11 12 13 73
+ 20 24 23 21 22  0  1 45 44 43 47 46 48 49 50 65 64 62 63 70 71 72 66 67
+ 68 69 74 75]</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>14688</v>
+        <v>159040.4992797944</v>
       </c>
     </row>
     <row r="82">
@@ -2143,17 +2207,19 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[ 2 21 15  0 39 22 10 11 14  8  7 37 45 32 19 46 12 13 33 40 24 20 38 31
- 47  4 28  1 41  9 23 25  3 34 44 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[42 41 53 52 51 48 49 50 54 55 27 26 25 28 32 31 29 30 18 19  4  3  2  5
+  9  8 10 16 17 36 35 34 33 39 40 59 58 57 56 60 61 62 63 65 64 47 43 44
+ 46 68 67 66 45 23 24 20 21 22  0  1  6  7 11 15 14 37 38 12 13 73 74 75
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>14701</v>
+        <v>159347.5770960216</v>
       </c>
     </row>
     <row r="83">
@@ -2164,17 +2230,19 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[18 36  5 26 42 29 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[26 25 28 27 42 41 53 52 51 48 49 50 54 55 32 31 29 30 18 19  4  3  2  5
+  9  8 10 16 17 36 35 34 33 39 40 59 58 57 56 60 61 62 63 65 64 47 43 44
+ 45 23 24 20 21 22  0  1  6  7 11 15 14 12 13 37 38 46 68 67 66 69 70 71
+ 72 73 74 75]</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>14718</v>
+        <v>159586.2178869393</v>
       </c>
     </row>
     <row r="84">
@@ -2185,17 +2253,19 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[28  4 47 41  1 33 13 24 12 22  2 40 15 21  0 39 10 46 20 38 31 23  9 25
-  3 34 44 11 14 32 19 45  8  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 0  1 22 21 20 24 23  3  2  5  6  7  4 19 18 30 29 28 25 26 27 31 32 42
+ 41 53 52 43 44 45 47 46 68 67 66 48 49 51 50 54 55 57 58 59 40 33 34  9
+  8 11 10 16 17 36 35 37 38 39 15 14 12 13 73 74 75 65 64 56 60 61 62 63
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>14740</v>
+        <v>160043.1723455208</v>
       </c>
     </row>
     <row r="85">
@@ -2206,17 +2276,19 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[11 14 32 45 19 10 22 39  8  0 21  2 13 12 46 20 24 33 15  7 37 30 43 17
- 35  6 27 29  5 36 18 26 42 16 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+          <t>[66 67 68 46 47 43 44 49 48 50 65 64 51 52 53 41 42 27 26 25 28 32 31 54
+ 55 56 57 58 59 40 39 33 34 29 30 18 19 24 23 45 20 21 22  0  1  3  2  4
+  9  8  5  6  7 10 16 17 36 35 37 38 60 61 62 63 70 71 72 69 11 15 14 12
+ 13 73 74 75]</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>14827</v>
+        <v>160093.8517228979</v>
       </c>
     </row>
     <row r="86">
@@ -2227,17 +2299,19 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[35 17  6 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
-  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+          <t>[19 18 30 29 28 25 26 27 31 32  4  3  2  5  9  8  6  7 11 10 16 17 36 35
+ 34 33 37 38 39 40 59 58 42 41 53 52 51 48 49 50 54 55 57 56 60 61 62 63
+ 65 64 43 47 44 24 20 21 23 45 22  0  1 74 75 12 13 14 15 73 46 68 67 66
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>14850</v>
+        <v>160097.4842025376</v>
       </c>
     </row>
     <row r="87">
@@ -2248,17 +2322,19 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[46 10 11 19 32 14 39 22 12 20 24 13  2 21  0  8 45 35 17  6 27 29  5 36
- 18 26 42 16 43 30 37  7 15 33 38 31 47  4 28 40 41 23  9 25  3  1 34 44]</t>
+          <t>[56 57 58 59 60 61 62 63 55 54 51 50 65 64 49 48 52 53 41 42 27 32 40 39
+ 33 38 37 34 31 28 26 25 29 30 18 19  4  9 35 36 17 16 10 15 14 11  8  5
+  3  2  6  7 12 13 73 24 20 23 43 47 46 44 45 68 67 66 70 71 72 69 21 22
+  0  1 74 75]</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>14920</v>
+        <v>160128.6298337209</v>
       </c>
     </row>
     <row r="88">
@@ -2269,17 +2345,19 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[27  6 17 35  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
-  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+          <t>[45 44 43 47 46 23 24 20 21 22  0  1  3  2 19 18 30 29 25 26 27 42 41 53
+ 52 48 49 51 50 65 64 55 54 28 31 32 33 34 35 36 17 16 10  9  4  5  6  7
+  8 11 12 13 14 15 37 38 39 40 59 58 57 56 62 63 61 60 68 67 66 69 70 71
+ 72 74 75 73]</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>15043</v>
+        <v>160145.3759135997</v>
       </c>
     </row>
     <row r="89">
@@ -2290,17 +2368,19 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[ 4 47 28 41  9 23 38 31 24 13 33 22 12 20 46 10  2 21 15 40  1 25  3 34
- 44 11 14 39  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[17 36 35 16 10 15 14 11 12 13  9  8  4 19 18 30 29 31 34 37 38 33 39 40
+ 59 58 32 28 27 42 41 53 52 51 54 57 60 61 56 55 50 48 49 26 25  3  5  6
+  7  2 20 24 23 21 22  0  1 74 75 73 43 47 44 45 46 68 67 66 65 64 62 63
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>15102</v>
+        <v>160305.9830976553</v>
       </c>
     </row>
     <row r="90">
@@ -2311,17 +2391,19 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[17  6 35 27 43 30 45 32 14 11 19 29  5 36 18 26 42 16 37  8 39  0  7 21
-  2 10 46 12 22 13 24 20 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[54 55 50 51 52 53 41 42 27 32 31 33 39 40 59 58 57 56 62 63 61 60 65 64
+ 49 48 47 43 46 44 26 25 28 29 30 18 19 34 38 37 35 36 17 16 10  9  4  3
+  2  5  8 11 15 14 12 13  6  7 24 20 23 45 68 67 66 70 71 72 69 21 22  0
+  1 74 75 73]</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>15484</v>
+        <v>160335.8827195758</v>
       </c>
     </row>
     <row r="91">
@@ -2332,17 +2414,19 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[14 11 32 45 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 19 10 22  2 21
-  0  7 15 13 12 46 20 24 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44 16]</t>
+          <t>[46 47 43 44 45 68 67 66 49 48 51 52 53 41 42 26 25 27 28 29 30 18 19 24
+ 23 20 21 22  0  1  3  2  4  5  9  8 31 32 33 34 35 36 17 16 10 11  6  7
+ 12 13 14 15 37 38 39 40 59 58 54 50 65 64 55 56 57 60 61 62 63 70 71 72
+ 69 74 75 73]</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>15509</v>
+        <v>160360.110896259</v>
       </c>
     </row>
     <row r="92">
@@ -2353,17 +2437,19 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[10 22 12 46 11 14 39 32 19 45  8  0 21  2 13 24 20 38 31 47  4 33 15  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[16 17 36 35 34 37 38 33 31 32 10 15 14 11 12 13  8  9  4 19 18 30 29 28
+ 27 42 41 53 52 39 40 59 58 57 60 61 56 54 55 51 26 25  3  5  6  7  2 20
+ 24 23 21 22  0  1 74 75 73 43 47 44 45 46 48 49 50 65 64 62 63 70 71 72
+ 66 67 68 69]</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>15538</v>
+        <v>160727.9900199395</v>
       </c>
     </row>
     <row r="93">
@@ -2374,17 +2460,19 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[12 24 13 22 10 46 20 38 31 47  4 33  2 39 11 14 32 19 45  8  0 21 15 40
- 28 41 23  9 25  3  1 34 44 35 17 43 30 37  7  6 27 29  5 36 18 26 42 16]</t>
+          <t>[51 52 53 41 42 48 49 50 55 54 57 56 65 64 62 63 61 60 58 59 40 39 33 32
+ 27 26 25 28 31 34 38 37 35 36 17 16 29 30 18 19  4  9  8 10 11 15 14 12
+ 13  5  3  2 24 20 23 43 47 46 44 45 68 67 66 69 70 71 72 21 22  0  1  6
+  7 73 74 75]</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>15539</v>
+        <v>160949.1538484742</v>
       </c>
     </row>
     <row r="94">
@@ -2395,17 +2483,19 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[40 33  2 21 15  0  8 39 22 13 24 12 10 11 14 32 45 37  7 30 43 17 35  6
- 27 19 46 20 38 47  4 28  1 41  9 23 31 25  3 34 44 29  5 36 18 26 42 16]</t>
+          <t>[48 49 51 52 53 41 42 27 26 25 28 32 31 50 65 64 55 54 57 56 62 63 61 60
+ 58 59 40 39 33 34 35 36 17 16 29 30 18 19  4  3  2 24 43 47 46 68 67 66
+ 44 45 23 20 21 22  0  1  5  9  8 10 37 38 15 14 11 12 13  6  7 73 74 75
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>15542</v>
+        <v>160958.7063213713</v>
       </c>
     </row>
     <row r="95">
@@ -2416,17 +2506,19 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[45 32 14 11 19 35 17 43 30 37  8 39 10 22 46 12 13 24 20  6 27  5 29 36
- 18 26 42 16  0  7 21  2 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[24 20 23 21 22  0  1  3  2  4 19 18 30 29 25 26 28 27 42 41 53 52 43 44
+ 45 47 46 68 67 66 48 49 51 50 54 55 32 31 34 33 39 40 59 58 57 56 60 61
+ 62 63 65 64 38 37 35 36 17 16  9  5  6  7  8 10 11 12 13 14 15 73 74 75
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>15705</v>
+        <v>161338.9515231175</v>
       </c>
     </row>
     <row r="96">
@@ -2437,17 +2529,19 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[22 10 12 13 24 33  2 21 39 14 11 46 20 38 31 47  4 28 40 15  0  8 37 45
- 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16  7 41 23  9 25  3  1 34 44]</t>
+          <t>[33 34 35 36 37 38 39 40 59 58 57 60 61 56 54 55 53 41 32 31 28 27 42 52
+ 51 50 48 49 65 64 62 63 70 71 72 17 16 10 15 14 11  9 18 30 29 25 26 19
+  4  8  5  3  2  6  7 12 13 73 20 24 23 21 22  0  1 45 44 43 47 46 68 67
+ 66 69 74 75]</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>15725</v>
+        <v>162290.0859558631</v>
       </c>
     </row>
     <row r="97">
@@ -2458,17 +2552,19 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[43 17  6 35 27 30 45 32 14 11 19 37  8 39  0  7 21  2 10 46 12 22 13 24
- 20 29  5 36 18 26 42 16 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[37 38 35 36 17 16 34 33 39 40 59 58 57 60 61 56 54 55 53 41 32 31 28 29
+ 30 18 19  4  9 10 15 14 11 12 13  8  5  6  7  2  3 27 42 52 51 50 48 49
+ 65 64 62 63 71 72 70 26 25 24 20 23 21 22  0  1 45 44 43 47 46 68 67 66
+ 69 73 74 75]</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>16557</v>
+        <v>162766.2263646363</v>
       </c>
     </row>
     <row r="98">
@@ -2479,17 +2575,19 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[ 8  0  7 37 30 45 14 39 11 32 43 17  6 35 27  5 29 36 18 26 42 16 19 10
- 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+          <t>[67 66 68 46 47 43 44 45 23 24 20 26 48 49 50 65 64 51 52 53 41 42 27 25
+ 28 29 30 18 19 31 32 54 55 56 57 58 59 40 39 33 34 35 36 17 16 10  9  4
+  3  2 21 22  0  1  5  6  7  8 11 15 14 37 38 60 61 62 63 70 71 72 69 12
+ 13 73 74 75]</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>13251</v>
+        <v>162878.7213280133</v>
       </c>
     </row>
     <row r="99">
@@ -2500,17 +2598,19 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[44 34  9 23 41 25  3  1 28  4 47 38 31 24 13 12 20 46 10 22 33  2 21 15
- 40 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+          <t>[12 13 11 14 15 10 16 17 36 35  9  8  5  6  7  4 19 18 30 29 28 31 34 37
+ 38 33 32 27 25 26  3  2  1  0 22 21 20 24 23 45 44 43 47 42 41 53 52 51
+ 54 39 40 59 58 57 60 61 56 55 50 48 49 65 64 62 63 70 71 72 73 74 75 46
+ 68 67 66 69]</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>13414</v>
+        <v>163110.1294827665</v>
       </c>
     </row>
     <row r="100">
@@ -2521,17 +2621,19 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[20 46 12 24 13 22 10 11 19 32 14 39  2 33 38 31 47  4 28 41 23  9 25  3
- 34 44  1 40 21 15  0  8 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+          <t>[25 26 28 29 30 18 19  4  3  2  5  9  8 27 42 41 53 52 51 48 49 50 54 55
+ 32 31 34 33 39 40 59 58 57 56 60 61 62 63 65 64 43 47 44 45 23 24 20 21
+ 22  0  1  6  7 10 16 17 36 35 37 38 15 14 11 12 13 73 46 68 67 66 69 70
+ 71 72 74 75]</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>13454</v>
+        <v>163733.3367059162</v>
       </c>
     </row>
     <row r="101">
@@ -2542,17 +2644,19 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[41  9 23 47  4 28  1 25  3 34 44 31 38 24 13 33 12 20 46 10 22  2 40 15
- 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[53 41 52 51 54 55 50 48 49 42 27 32 31 28 26 25 29 30 18 19  4  9 34 33
+ 39 40 59 58 57 56 62 63 61 60 65 64 47 43 44 46 68 67 66 45 23 24 20 21
+ 22  3  2  5  8 10 16 17 36 35 37 38 15 14 11 12 13  6  7  1  0 74 75 73
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>13525</v>
+        <v>163877.2826265156</v>
       </c>
     </row>
     <row r="102">
@@ -2563,17 +2667,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[30 43 17  6 35 27 45 37  8  0  7 39 14 32 11 19 10 22  2 21 15 40 33 13
- 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44 29  5 36 18 26 42 16]</t>
+          <t>[31 32 27 28 29 30 18 19  4  9  8 10 16 17 36 35 34 33 39 40 59 58 57 41
+ 42 26 25 53 52 51 54 55 50 48 49 65 64 56 60 61 38 37 15 14 11 12 13  5
+  3  2  6  7 20 24 23 21 22  0  1 45 44 43 47 46 68 67 66 62 63 70 71 72
+ 69 74 75 73]</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>13551</v>
+        <v>164001.6446752432</v>
       </c>
     </row>
     <row r="103">
@@ -2584,17 +2690,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[38 31 20 12 24 13 22 10 46 19 11 14 39  2 33 47  4 28 41 23  9 25  3 34
- 44  1 40 21 15  0  8 32 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+          <t>[23 24 20 21 22 45 44 43 47 46 26 25 28 29 30 18 19  3  2  4  5  6  7  8
+  9 10 11 12 13 14 15 16 17 36 35 31 27 42 41 53 52 51 48 49 50 54 55 65
+ 64 66 67 68 32 33 34 37 38 39 40 59 58 57 56 62 63 61 60  0  1 74 75 73
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>13561</v>
+        <v>164265.4413679651</v>
       </c>
     </row>
     <row r="104">
@@ -2605,17 +2713,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[37 30 43 45 14  8  0  7 39 11 32 17  6 35 27  5 29 36 18 26 42 16 19 10
- 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+          <t>[13 12 11 14 15 10  8  9  5  6  7  4 19 18 30 29 16 17 36 35 34 37 38 33
+ 31 32 28 27 25 26  3  2  1  0 22 21 20 24 23 45 44 43 47 42 41 53 52 51
+ 54 39 40 59 58 57 60 61 56 55 50 48 49 65 64 62 63 73 74 75 46 68 67 66
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>13666</v>
+        <v>164269.9025773026</v>
       </c>
     </row>
     <row r="105">
@@ -2626,17 +2736,19 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[19 32 11 14 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  8 39 10 46 20
- 12 22 13 24 38 31 47  4 33  2 21  0  7 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[47 43 46 44 45 23 24 20 26 25 27 42 41 53 52 48 49 51 50 65 64 55 54 57
+ 56 62 63 61 60 58 59 40 39 32 28 29 30 18 19  4  3  2 21 22  0  1  5  9
+ 31 33 34 35 36 17 16 10  8  6  7 11 15 14 12 13 37 38 68 67 66 69 70 71
+ 72 73 74 75]</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>13848</v>
+        <v>165171.1978830118</v>
       </c>
     </row>
     <row r="106">
@@ -2647,17 +2759,19 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[31 38 20 12 24 13 22 10 46 19 11 14 32 45 39  2 33 47  4 41 23  9 34 44
- 25  3 28  1 40 21 15  0  8 37 30 43 17 35  6 27 29 42 26  5 36 18 16  7]</t>
+          <t>[58 59 40 39 57 60 61 56 62 63 55 54 51 52 53 41 42 27 32 33 38 37 34 35
+ 36 17 16 31 28 29 30 18 19 25 26 48 50 65 64 49 47 43 44 46 68 67 66 70
+ 71 72 10 15 14 11  9  8  4  5  3  2  6  7 12 13 73 20 24 23 45 21 22  0
+  1 74 75 69]</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>13906</v>
+        <v>165385.5205529695</v>
       </c>
     </row>
     <row r="107">
@@ -2668,17 +2782,19 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[15 21  2  0  7  8 39 14 11 10 22 13 33 40 24 12 46 19 32 45 37 30 43 17
-  6 35 27  5 29 36 18 26 42 16 20 38 47  4 28  1 41 31 23  9 25  3 34 44]</t>
+          <t>[43 47 46 44 45 23 24 20 21 26 25 27 42 41 53 52 48 49 51 50 65 64 55 54
+ 57 56 58 59 40 39 32 28 29 30 18 19  4  3  2  5  9  8 31 33 34 35 36 17
+ 16 10 11  6  7  1  0 22 68 67 66 69 62 63 61 60 38 37 15 14 12 13 73 74
+ 75 70 71 72]</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>13931</v>
+        <v>165512.8947237293</v>
       </c>
     </row>
     <row r="108">
@@ -2689,17 +2805,19 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[ 1 28  4 47 41 25  3  9 23 34 44 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 2  3  5  6  7  4 19 18 30 29 28 25 26 27 31 32  9  8 11 10 16 17 36 35
+ 34 33 37 38 39 40 59 58 42 41 53 52 51 48 24 20 21 22  0  1 74 75 23 45
+ 44 43 47 46 68 67 66 49 50 54 55 57 56 60 61 62 63 65 64 15 14 12 13 73
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>13953</v>
+        <v>165984.5786425932</v>
       </c>
     </row>
     <row r="109">
@@ -2710,17 +2828,19 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[ 7  0  8 37 30 43 45 14 39 21 15  2 22 10 11 32 19 46 12 13 33 40 24 20
- 38 31 47  4 28  1 41 23  9 25  3 34 44 35 17  6 27  5 29 36 18 26 42 16]</t>
+          <t>[50 65 64 55 54 51 52 53 41 48 49 56 57 58 59 40 39 33 32 42 27 26 25 28
+ 31 34 38 37 35 36 17 16 29 30 18 19  4  9  8 10 11 15 14 12 13  5  3  2
+ 24 43 47 46 68 67 66 62 63 61 60 70 71 72 44 45 23 20 21 22  0  1  6  7
+ 73 74 75 69]</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>14028</v>
+        <v>166468.7491531427</v>
       </c>
     </row>
     <row r="110">
@@ -2731,17 +2851,19 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[34 44  9 25  3 41 23 47  4 28  1 38 31 24 13 12 20 46 10 22 33 40  2 21
- 15 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+          <t>[27 42 41 53 52 51 54 32 31 28 29 30 18 25 26 33 34 35 36 17 16 10  9 19
+  4  3  2  5  8 11 15 14 12 13  6  7 20 24 23 45 44 43 47 46 48 49 50 55
+ 57 58 59 40 39 38 37 60 61 56 62 63 65 64 66 67 68 21 22  0  1 74 75 73
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>14039</v>
+        <v>167155.4611735548</v>
       </c>
     </row>
     <row r="111">
@@ -2752,17 +2874,19 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[ 9 23 41 25  3 34 44 47  4 28  1 38 31 24 13 12 20 46 10 22 33  2 40 15
- 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 5  6  7  8  9  4  3  2 19 18 30 29 28 31 32 27 25 26 24 20 21 22  0  1
+ 11 10 16 17 36 35 34 33 37 38 39 40 59 58 57 42 41 53 52 51 54 55 50 48
+ 49 43 47 44 23 45 46 68 67 66 65 64 56 60 61 62 63 15 14 12 13 73 74 75
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>14046</v>
+        <v>167405.2262838226</v>
       </c>
     </row>
     <row r="112">
@@ -2773,17 +2897,19 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[25  3  9 41 23 34 44  1 28  4 47 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[74 75  0  1 22 21 20 24 23  2  3  6  7  5  4 19 18 30 29 28 25 26 27 31
+  9  8 11 12 13 10 16 17 36 35 34 32 42 41 53 52 43 44 45 47 46 68 67 66
+ 48 49 51 54 55 50 65 64 57 33 37 38 39 40 59 58 60 61 56 62 63 15 14 73
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>14076</v>
+        <v>167478.0857766778</v>
       </c>
     </row>
     <row r="113">
@@ -2794,17 +2920,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[33 13 24 12 22  2 21 15 40 28  4 47 38 31 20 46 10 11 14 39  0  8  7 37
- 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16 41  1 25  3  9 23 34 44]</t>
+          <t>[ 1  0 22 21 20 24 23  3  2  6  7  5  4 19 18 30 29 28 25 26 27 31 32  9
+  8 11 10 16 17 36 35 34 33 37 38 39 40 59 58 42 41 53 52 51 48 43 44 45
+ 47 46 68 67 66 49 50 54 55 57 56 60 61 62 63 65 64 15 14 12 13 73 74 75
+ 69 70 71 72]</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>14273</v>
+        <v>167576.3344009184</v>
       </c>
     </row>
     <row r="114">
@@ -2815,17 +2943,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[39 14 11 10 22  2 21  0  8 37 45 32 19 46 12 13 24 33 15  7 30 43 17 35
-  6 27  5 29 36 18 26 42 16 20 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+          <t>[68 67 66 46 47 43 44 45 23 24 20 21 22 26 25 42 41 53 52 48 49 50 65 64
+ 51 54 55 56 57 58 59 40 39 33 32 27 28 29 30 18 19  4  3  2  5  9 31 34
+ 35 36 17 16 10  8  6  7  1  0 74 75 11 15 14 12 13 37 38 60 61 62 63 70
+ 71 72 69 73]</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>14377</v>
+        <v>167665.0861005468</v>
       </c>
     </row>
     <row r="115">
@@ -2836,17 +2966,19 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[ 3 25  9 34 44 41 23 47  4 28  1 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[41 53 52 42 27 32 31 28 26 25 29 30 18 19  4  9 34 33 39 40 59 58 57 54
+ 51 48 49 50 55 56 62 63 61 60 38 37 35 36 17 16 10 11  8  5  3  2 20 24
+ 23 43 47 46 44 45 21 22  0  1  6  7 12 14 15 13 73 65 64 66 67 68 69 70
+ 71 72 74 75]</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>14378</v>
+        <v>168845.5491951807</v>
       </c>
     </row>
     <row r="116">
@@ -2857,17 +2989,19 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[29  5 36 18 26 42 16 27  6 35 17 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[34 33 35 36 17 16 37 38 39 40 59 58 32 31 28 29 30 18 19  4  9 10 15 14
+ 11  8  5  6  7  2  3 27 42 41 53 52 51 54 57 60 61 56 55 50 48 49 26 25
+ 24 20 23 21 22  0  1 12 13 73 43 47 44 45 46 68 67 66 65 64 62 63 70 71
+ 72 69 74 75]</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>14406</v>
+        <v>168936.1039917056</v>
       </c>
     </row>
     <row r="117">
@@ -2878,17 +3012,19 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[23  9 41 47  4 38 31 20 24 13 12 22 10 46 19 11 14 39  2 33 28  1 25  3
- 34 44 40 15 21  0  8 32 45 35 17  6 27 29 42 26  5 36 18 16 43 30 37  7]</t>
+          <t>[44 43 47 46 45 23 24 20 21 22  0  1  3 25 26 27 42 41 53 52 48 49 51 50
+ 65 64 55 54 57 56 58 59 40 39 32 28 29 30 18 19  4  2  5  6  7  8  9 31
+ 34 33 38 37 35 36 17 16 10 11 12 13 14 15 68 67 66 69 62 63 61 60 70 71
+ 72 74 75 73]</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>14453</v>
+        <v>169595.6023583985</v>
       </c>
     </row>
     <row r="118">
@@ -2899,17 +3035,19 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[24 13 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[61 60 58 59 40 57 56 62 63 55 54 51 50 65 64 49 48 52 53 41 42 39 33 38
+ 37 34 32 31 27 28 29 30 18 19 35 36 17 16 10 15 14 11  9  8  4 25 26 43
+ 47 46 44 45 23 24 20 21  3  2  5  6  7 12 13 73  1  0 22 68 67 66 70 71
+ 72 69 74 75]</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>14466</v>
+        <v>171064.1782355877</v>
       </c>
     </row>
     <row r="119">
@@ -2920,17 +3058,19 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[42 26 18 36  5 29 16 27 35  6 17 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[57 56 58 59 40 39 60 61 62 63 55 54 51 52 53 41 42 27 32 33 38 37 34 31
+ 28 29 30 18 19 25 26 50 65 64 49 48 47 43 46 44 45 23 24 20 21  3  4  9
+ 35 36 17 16 10 15 14 11  8  5  2  6  7 12 13 73  1  0 22 68 67 66 70 71
+ 72 69 74 75]</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>14500</v>
+        <v>172004.4298126131</v>
       </c>
     </row>
     <row r="120">
@@ -2941,17 +3081,19 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[16 26 18 36  5 29 42 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[22 21 20 24 23  0  1  2  3  4 19 18 30 29 25 26 28 27 42 41 53 52 43 44
+ 45 47 46 68 67 66 48 49 51 50 54 32 31  5  6  7  8  9 10 11 12 13 14 15
+ 16 17 36 35 34 33 39 40 59 58 57 55 65 64 56 60 61 62 63 38 37 74 75 73
+ 70 71 72 69]</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>14506</v>
+        <v>173774.1437667562</v>
       </c>
     </row>
     <row r="121">
@@ -2962,17 +3104,19 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[ 6 17 35 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39 37  8  0
-  7 21  2 22 12 20 24 13 33 15 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[60 61 58 59 40 39 57 56 62 63 55 54 51 52 53 41 42 27 32 33 38 37 34 35
+ 36 17 16 31 28 29 30 18 19 25 26 50 65 64 49 48 47 43 46 44 45 23 24 20
+ 21  3  4  9 10 15 14 11  8  5  6  7  2 12 13 73  1  0 22 68 67 66 70 71
+ 72 69 74 75]</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>14516</v>
+        <v>173951.099349228</v>
       </c>
     </row>
     <row r="122">
@@ -2983,17 +3127,19 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[21 15  2  0  8 39 14 11 10 22 13 33 40  7 37 30 45 32 19 46 12 24 20 38
- 31 47  4 28  1 41  9 23 25  3 34 44 43 17  6 35 27  5 29 36 18 26 42 16]</t>
+          <t>[32 31 27 28 29 30 18 19  4  9 34 33 39 40 59 58 57 41 42 53 52 51 54 55
+ 50 48 49 26 25 35 36 17 16 10 11  8  5  3  2  6  7 12 14 15 37 38 60 61
+ 56 62 63 65 64 47 43 44 45 23 24 20 21 22  0  1 13 73 46 68 67 66 69 70
+ 71 72 74 75]</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>14525</v>
+        <v>176979.4979906177</v>
       </c>
     </row>
     <row r="123">
@@ -3004,17 +3150,19 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[13 24 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[64 65 50 55 54 51 49 48 52 53 41 42 27 32 57 56 62 63 61 60 58 59 40 39
+ 33 34 31 28 26 25 43 47 46 66 67 68 44 45 23 24 20 29 30 18 19  4  9  8
+ 10 35 37 38 36 17 16 15 14 11 12 13  5  3  2  6  7 21 22  0  1 74 75 70
+ 71 72 69 73]</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>14536</v>
+        <v>177565.0726816049</v>
       </c>
     </row>
     <row r="124">
@@ -3025,17 +3173,19 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[32 45 14 11 19 46 10 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 16 22
- 12 20 24 13  2 21  0  7 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[ 9  8  4  5  6  7 11 10 16 17 36 35 34 18 19 30 29 28 31 32 27 25 26  3
+  2 12 13 14 15 37 38 33 39 40 59 58 57 41 42 53 52 51 54 55 50 48 49 43
+ 47 44 24 20 21 22  0  1 23 45 46 68 67 66 65 64 56 60 61 62 63 70 71 72
+ 73 74 75 69]</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>14554</v>
+        <v>178017.7965327121</v>
       </c>
     </row>
     <row r="125">
@@ -3046,17 +3196,19 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>76 miast</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[26 18 36  5 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[18 30 29 19  4  9  8  5  3  2  6  7 10 16 17 36 35 34 31 28 25 26 27 32
+ 33 39 40 59 58 38 37 15 11 12 13 14 42 41 53 52 51 54 55 57 56 60 61 62
+ 63 50 48 49 43 47 44 24 20 21 23 45 46 68 67 66 65 64 70 71 72 22  0  1
+ 74 75 73 69]</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>14557</v>
+        <v>178739.5120438136</v>
       </c>
     </row>
     <row r="126">
@@ -3067,17 +3219,23 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[ 5 36 18 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[106 110 111  93  45 117  47  52  48  46  53  44 102  92 126  94 122  96
+  27 121  32  24  41  39  43  56 120  55 123  51   4  50   1  34  35  36
+  40  42  33  38  37  25  29  13  15   0  49  12 114 119   6 104 113 105
+  14   5 107  19  11  30  26  79  78  16  20  21   3  23  22  10   9  54
+  65 112  63  57  99   2   8  18  71   7  17  76  73  72  66  89 115  59
+  60  90  61  58 124  64  88  91  98 103  70  67  75  77  28  31 116  83
+  80 125  82  81  74  68  69 109 108  95  86  84  85  87 118  62 101 100
+  97]</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>14579</v>
+        <v>145272.8249080513</v>
       </c>
     </row>
     <row r="127">
@@ -3088,17 +3246,23 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[47  4 28 41  9 23 38 31 24 13 12 20 46 10 22 33  2 21 15 40  1 25  3 34
- 44 11 14 39  8  0  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[122  94  92 126  96  27 121  32  24  28  31  37  41  38  33  42  39  34
+  35  36  40  29  25  26  30  13  11  15   0   1  50  43 102  44  53  56
+ 120  55   4  49  12   6 104  14 105   5 107  19  16  20  21   3  23  22
+  18  71  17  78  79  77 116  83  80 125  82  81  75  76  73  72   7 113
+ 119 114   9   2  10   8  66  67  74  68  69  70 115  89  59  60  90  99
+  51 123  46  52  47 117  48  45  93 110 111  54  65  63  57  61  58 112
+ 124  88  91  64  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>14672</v>
+        <v>148631.2536267052</v>
       </c>
     </row>
     <row r="128">
@@ -3109,17 +3273,23 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[36 18  5 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 76  17  73  72  71  18  20  16  21   3  22  23 107  19  14 105   5   7
+  66  67  75  77  78  79  30  26  11  13  40  29  25  37  38  33  42  35
+  36  15   0 104 113  10   8   2 119   6  12 114   9  89 115  59  61  60
+  90  58  70  69  68  74 116  83  80 125  81  82  31  28  24  32 121  27
+  41  39  34   1  50  49   4 120  56  53  43  44 102  55  51 123  99  57
+  63 112  65  54  46  52  48 117  47  45  93  92  94 122  96 126 110 111
+  64 124  88  91  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>14680</v>
+        <v>152756.2026693873</v>
       </c>
     </row>
     <row r="129">
@@ -3130,17 +3300,23 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[ 0  8  7 21 15  2 39 14 11 32 45 37 30 43 17  6 35 27  5 29 36 18 26 42
- 19 10 22 13 33 40 24 12 46 20 38 31 47  4 28  1 41 23  9 25  3 34 44 16]</t>
+          <t>[ 82  81 125  80  83 116  77  75  74  68  69  67  73  76  78  79  30  26
+  25  24  28  31  32 121  27  37  38  33  42  29  11  13  40  35  36  15
+   0  19  16  20  17  71  18  21   3  22  23 107  14 105   5   7  72  66
+  70  95 108 118  62 101 100  96 122  41  39  34   1 104 113  10   8   6
+ 119  12 114   9   2  89 115  59  61  60  90  58  57  63  99  49  50  56
+ 120   4  55  51 123  53  43 102  44  94  92 126  47  52 117  48  46  54
+  65 112 124 109  86  87  85  84 103  88  91  98  64  45  93 111 110 106
+  97]</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>14688</v>
+        <v>153286.4920748662</v>
       </c>
     </row>
     <row r="130">
@@ -3151,17 +3327,23 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[ 2 21 15  0 39 22 10 11 14  8  7 37 45 32 19 46 12 13 33 40 24 20 38 31
- 47  4 28  1 41  9 23 25  3 34 44 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 83  80 116  77  75  74  68  69  67  73  76  17  78  79  30  26  25  24
+  28  31  32 121  27  37  38  33  29  11  16  20  21  18  71   7  72  66
+  70 125  81  82  62 118  95 108 109  84  86  87  85   3  22  23 107  19
+  14 105   5   8  10 113 104   6   0  15  13  40  42  41  39  35  36  34
+   1  50  12 119   9   2  89 115  59  61  60  90  58  57  63  99 114  49
+ 120  56  53  43  44 102   4  55  51 123  54  65 112 124  88  91 103  98
+  64  46  52  47 117  48  45  93  94 122  96  92 126 110 111 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>14701</v>
+        <v>153538.6036079378</v>
       </c>
     </row>
     <row r="131">
@@ -3172,17 +3354,23 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[18 36  5 26 42 29 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 80  83 116  77  75  74 125  81  82  79  78  76  17  73  72  67  69  68
+  70  66  71  18  20  16  21   3  22  23 107  19  14 105   5   7   8  10
+ 113 104  11  30  26  25  24  28  31  32 121  27  37  38  33  29  13  40
+  42  41  39  35  36  15   0   6 119   9   2  89 115  59  61  60  90  58
+  57  63  99 114  12   1  34  50  49 120  56  53  43  44 102   4  55  51
+ 123  54  65 112 124 109 108  95 118  62  87  86  85  84 103  88  91  98
+  64  46  52  47 117  48  45  93  94 122  96  92 126 110 111 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>14718</v>
+        <v>153839.8823710362</v>
       </c>
     </row>
     <row r="132">
@@ -3193,17 +3381,23 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[28  4 47 41  1 33 13 24 12 22  2 40 15 21  0 39 10 46 20 38 31 23  9 25
-  3 34 44 11 14 32 19 45  8  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[100 101  82  81 125  80  83 116  77  75  74  68  69  67  73  76  78  79
+  31  28  32 121  27  24  25  37  38  33  41  42  29  26  30  11  13  40
+  35  36  34  39  15   0  19  16  20  17  71  18  21   3  22  23 107  14
+ 105   5 104 113  10   8   7  72  66  70  95 108  62 118  87  86  85  84
+ 109  58  59 115  89   2   6 119  12   1  50  49 114   9  99  57  63  90
+  60  61   4 120  56  43 102  44  53  55  51 123  54  46  52  47 117  48
+  45  93  94 122  96  97 126  92  65 112 124  88  91 103  98  64 111 110
+ 106]</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>14740</v>
+        <v>155051.6215425777</v>
       </c>
     </row>
     <row r="133">
@@ -3214,17 +3408,23 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[11 14 32 45 19 10 22 39  8  0 21  2 13 12 46 20 24 33 15  7 37 30 43 17
- 35  6 27 29  5 36 18 26 42 16 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+          <t>[116  83  80  77  75  74  68  69  67  73  76  78  79  30  26  25  24  32
+  28  31 121  27  37  38  33  29  11  13  40  42  41  39  35  36  15   0
+  19  16  20  17  71  18  21   3  22  23 107  14 105   5   7  72  66  70
+ 125  81  82  62 118  95 108 109  84  85  86  87   8  10 113 104   6 119
+  12 114   9   2  89 115  59  61  60  90  58  57  63  99  49   1  34  50
+  56 120   4  55  51 123  53  43  44 102  94 122  96  92 126  47  52  46
+  48 117  45  93  54  65 112 124  88  91 103  98  64 111 110 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>14827</v>
+        <v>155182.6379459075</v>
       </c>
     </row>
     <row r="134">
@@ -3235,17 +3435,23 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[35 17  6 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
-  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 27 121  32  24  28  31  25  37  38  41  33  42  29  26  30  11  13  40
+  35  36  39  34  15   0   6 104  14  19  16  20  78  79  77 116  83  80
+ 125  82  81  75  76  17  21   3 107 105   5  23  22  18  71   7   8  10
+ 113 119  12   1  50  56  43 102  44  53 120  49 114   9   2  89 115  59
+  61  60  90  99   4  55  51 123  46  52  47 117  48  45  93  94 122  96
+  92 126 110 111  54  65  57  63  66  73  72  67  74  68  69  70  58 112
+ 124  88  91  64  98 103 109 108  95  86  87  85  84 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>14850</v>
+        <v>155232.6749849894</v>
       </c>
     </row>
     <row r="135">
@@ -3256,17 +3462,23 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[46 10 11 19 32 14 39 22 12 20 24 13  2 21  0  8 45 35 17  6 27 29  5 36
- 18 26 42 16 43 30 37  7 15 33 38 31 47  4 28 40 41 23  9 25  3  1 34 44]</t>
+          <t>[ 96 122  94  27 121  32  28  31  24  37  38  41  33  42  39  35  36  40
+  29  25  26  30  11  13  34  43 102  44  53  56  50   1  15   0   6 104
+  14  19  16  20  21   3 107 105   5  23  22  18  78  79  77 116  83  80
+ 125  82  81  75  76  17  71   7   8  10 113 119  12  49 120   4  55  51
+ 123 114   9   2  99  57  63  90  89 115  59  60  61  58  66  73  72  67
+  74  68  69  70 109 108  95  86  87  85  84 118  62 101 100  97 126  92
+  93  47 117  52  48  46  45  54  65 112 124  88  91  64 111 110 106  98
+ 103]</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>14920</v>
+        <v>155601.8586306612</v>
       </c>
     </row>
     <row r="136">
@@ -3277,17 +3489,23 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[27  6 17 35  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
-  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+          <t>[  3  21  22  23 107  19  16  20  18  71   7   8  10   5 105  14 104 113
+   6   0  15  11  13  40  29  30  26  78  17  76  73  72  66   2 119   9
+  12 114  49   1  50  36  35  34  42  33  38  37  25  79  77  75  67  70
+  69  68  74 116  83  80 125  81  82  24  32 121  27  28  31  41  39  43
+  56 120   4  55  51 123  99  89 115  59  61  60  90  57  63  58 112  65
+  54  46  53  44 102  47  52  48 117  45  93  92  94 122  96 126 110 111
+  64 124  88  91  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>15043</v>
+        <v>157066.4242516464</v>
       </c>
     </row>
     <row r="137">
@@ -3298,17 +3516,23 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[ 4 47 28 41  9 23 38 31 24 13 33 22 12 20 46 10  2 21 15 40  1 25  3 34
- 44 11 14 39  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 74  75  77 116  83  80 125  81  82  68  69  67  73  72  76  17  71   7
+  18  20  16  21   3  22  23 107  19  78  79  30  26  11  13  29  25  37
+  38  33  42  40  14 105   5   8  10  66  70 108  95 109  84  85  86  87
+ 118  62  31  28  24  32 121  27  41  35  36  15   0 104 113   6 119   2
+ 115  89  59  61  58  60  90  57  63  99   9  12 114  49   1  50  34  39
+  43  44 102  56 120   4  55  51 123  53  46  52  48 117  47  45  54  65
+ 112 124  88  91 103  98  64  93  92  94 122  96 126 110 111 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>15102</v>
+        <v>157084.4809593455</v>
       </c>
     </row>
     <row r="138">
@@ -3319,17 +3543,23 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[17  6 35 27 43 30 45 32 14 11 19 29  5 36 18 26 42 16 37  8 39  0  7 21
-  2 10 46 12 22 13 24 20 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[107   5 105  14  19   3  21  22  23  18  20  16  71   7   8  10 113 104
+   6   0  15  11  13  40  29  30  26  78  17  76  73  72  66   2 119   9
+  12 114  49   1  50  36  35  34  42  33  38  37  25  79  77  75  67  70
+  69  68  74 116  83  80 125  81  82  24  32 121  27  28  31  41  39  43
+  56 120   4  55  51 123  99  89 115  59  61  60  90  57  63  58 112  65
+  54  46  53  44 102  47  52  48 117  45  93  92  94 122  96 126 110 111
+  64 124  88  91  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>15484</v>
+        <v>157180.7015345475</v>
       </c>
     </row>
     <row r="139">
@@ -3340,17 +3570,23 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[14 11 32 45 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 19 10 22  2 21
-  0  7 15 13 12 46 20 24 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44 16]</t>
+          <t>[111 110  93  45 117  48  52  47  46  54 123  55 120  56  53  44 102  43
+  50   4  51  65 112  64  63  57  99 114  49  12   1  34  36  35  39  42
+  33  38  41  40  15   0   6 119   9   2 113 104 105  14   5 107  23  10
+   8  22   3  21  19  13  11  29  26  30  37  25  92  94 126 106 122  96
+  27 121  32  24  28  31  79  78  16  20  18  71   7  89 115  90  60  61
+  59  58  66  72  73  17  76  77  75  67  70  69  68  74 116  83  80 125
+  81  82 124  88  91  98 103 109 108  95  86  84  85  87 118  62 101 100
+  97]</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>15509</v>
+        <v>157356.5561083124</v>
       </c>
     </row>
     <row r="140">
@@ -3361,17 +3597,23 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[10 22 12 46 11 14 39 32 19 45  8  0 21  2 13 24 20 38 31 47  4 33 15  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 41  38  33  42  39  37  25  29  40  35  36  34  13  11  26  30  79  78
+  24  32 121  27  28  31 122  94 102  43  44  53  56  50   1  15   0   6
+ 104  14 105   5 107  19  16  20  21   3  23  22  18  71   7   8  10 113
+ 119  12  49 120   4  55  51 123 114   9   2  99  57  63  90  89 115  59
+  60  61  58  66  17  76  73  72  77 116  83  80  75  74  67  70  69  68
+ 125  81  82  96  92 126  93  47  52 117  48  46  45  54  65 112 124  88
+  91  64 111 110 106  97 100 101  62 118  95 108 109  84  85  86  87 103
+  98]</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>15538</v>
+        <v>157852.1549860589</v>
       </c>
     </row>
     <row r="141">
@@ -3382,17 +3624,23 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[12 24 13 22 10 46 20 38 31 47  4 33  2 39 11 14 32 19 45  8  0 21 15 40
- 28 41 23  9 25  3  1 34 44 35 17 43 30 37  7  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 72  73  66   7  71  18  21  20  17  76  67  70  69  68  74  75  77  78
+  79  16   3  22  23 107  19   5 105  14   8  10 113 104   6 119   2 115
+  89  59  61  60  90  58  57  63  99   9 114  12   0  15  11  30  26  29
+  13  40  36  35  34   1  49  50 120   4  51 123  55  56  53  43  39  42
+  33  38  37  25  24  32  28  31 121  27  41 116  83  80 125  81  82  95
+ 108 109  84  85  86  87 118  62 101 100  96 122  94 102  44  52  46  54
+  65 112 124  88  91 103  98  64  48 117  47  45  93  92 126 110 111 106
+  97]</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>15539</v>
+        <v>157871.0137282376</v>
       </c>
     </row>
     <row r="142">
@@ -3403,17 +3651,23 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[40 33  2 21 15  0  8 39 22 13 24 12 10 11 14 32 45 37  7 30 43 17 35  6
- 27 19 46 20 38 47  4 28  1 41  9 23 31 25  3 34 44 29  5 36 18 26 42 16]</t>
+          <t>[ 11  13  40  29  30  26  25  37  38  33  42  35  36  15   0 104  14  19
+ 107 105   5  23   3  21  16  20  18  22 113   6 119  12   1  34  39  41
+  79  78  76  17  71   7   8  10   2   9 114  49  50  56 120   4  55  51
+ 123  53  43  44 102  24  32 121  27  28  31  77  75  73  72  66  67  70
+  69  68  74 116  83  80 125  81  82 115  89  59  61  60  90  99  57  63
+  58 112  65  54  46  52  47 117  48  45  93  92  94 122  96 126 110 111
+  64 124  88  91  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>15542</v>
+        <v>158176.6790791729</v>
       </c>
     </row>
     <row r="143">
@@ -3424,17 +3678,23 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[45 32 14 11 19 35 17 43 30 37  8 39 10 22 46 12 13 24 20  6 27  5 29 36
- 18 26 42 16  0  7 21  2 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[ 97  96 122  94 126  92  27 121  32  28  31  24  37  38  41  33  42  39
+  25  26  30  29  40  35  36  34  43 102  44  53  56  50   1  15  13  11
+  79  78  77 116  83  80 125  82  81 100 101  74  75  76  17  16  20  19
+  14 105   5 107   3  21  18  22  23 104   0   6 113 119  12  49 120  55
+   4 114   9  10   8  71   7  73  72  66  67  69  68  70   2  89 115  59
+  60  90  99  51 123  46  52  47 117  48  45  93 110 111 106  54  65  63
+  57  61  58 112 124  88  91  64  98 103 109 108  95 118  62  87  86  85
+  84]</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>15705</v>
+        <v>158586.1199336904</v>
       </c>
     </row>
     <row r="144">
@@ -3445,17 +3705,23 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[22 10 12 13 24 33  2 21 39 14 11 46 20 38 31 47  4 28 40 15  0  8 37 45
- 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16  7 41 23  9 25  3  1 34 44]</t>
+          <t>[ 28  31  32 121  27  24  25  37  38  33  41  42  29  26  30  79  78  77
+ 116  83  80 125  82  81  75  76  17  16  20  19  11  13  40  35  36  39
+  34  15   0 104  14 107  21   3  22  23   5 105 113   6   1  50  56  43
+ 102  44  53 120  49  12 119  10   8  18  71   7  73  72  66  67  74  68
+  69  70 115  89   2   9 114   4  55  51 123  46  52  47 117  48  45  93
+  94 122  96  92 126  54  65  99  57  63  90  60  59  61  58 112 124  88
+  91  64  98 103 109 108  95  86  87  85  84 118  62 101 100  97 110 111
+ 106]</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>15725</v>
+        <v>158883.7985793246</v>
       </c>
     </row>
     <row r="145">
@@ -3466,17 +3732,23 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[43 17  6 35 27 30 45 32 14 11 19 37  8 39  0  7 21  2 10 46 12 22 13 24
- 20 29  5 36 18 26 42 16 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[ 64 112  65  54 123  51   4  55 120  49 114  99  63  57  90  60  61  59
+  89 115  58 124  88  91  98 103   2   9 119  12   6 113  10   8  23   5
+ 105 104   0   1  50  56  53  46  48  52 117  45  47  93 111 110  44  43
+ 102  34  36  15  14 107  22   3  21  18   7  71  20  16  19  11  13  40
+  35  39  42  33  29  30  26  25  37  38  41  17  66  72  73  76  78  79
+  77  75  67  70  69  68  74 116  83  80 125  81  82  24  32 121  27  28
+  31  94  92 126 122  96 109 108  95  84  85  86  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>16557</v>
+        <v>159090.9456336242</v>
       </c>
     </row>
     <row r="146">
@@ -3487,17 +3759,23 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[ 8  0  7 37 30 45 14 39 11 32 43 17  6 35 27  5 29 36 18 26 42 16 19 10
- 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+          <t>[ 31  28  32 121  27  24  25  37  38  33  41  42  29  26  30  79  78  77
+ 116  83  80 125  82  81  75  76  17  16  20  19  11  13  40  35  36  39
+  34  15   0 104  14 107  21   3  22  18  71   7  23   5 105 113   6   1
+  50  56  43 102  44  53 120  49  12 119  10   8  73  72  66  67  74  68
+  69  70 115  89   2   9 114   4  55  51 123  46  52  47 117  48  45  93
+  94 122  96  92 126  54  65  99  57  63  90  60  59  61  58 112 124  88
+  91  64  98 103 109 108  95  86  87  85  84 118  62 101 100  97 110 111
+ 106]</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>13251</v>
+        <v>159503.8912990206</v>
       </c>
     </row>
     <row r="147">
@@ -3508,17 +3786,23 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[44 34  9 23 41 25  3  1 28  4 47 38 31 24 13 12 20 46 10 22 33  2 21 15
- 40 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+          <t>[ 29  40  13  11  30  26  25  37  38  33  42  35  36  34  39  41  15   0
+   6 104  14 105   5 107  19  16  20  21   3  22  23 113  10   8  18  71
+   7  17  76  78  79  77  75  73  72  66 119  12   1  50  49 114   9   2
+  89 115  59  60  90  99  57  63   4 120  56  53  43  44 102  55  51 123
+  54  46  52  47 117  48  45  93  92  94 122  27 121  32  24  28  31 116
+  83  80  74  67  70  69  68 125  81  82  96 126 110 111  65 112  61  58
+ 124  88  91  64  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>13414</v>
+        <v>159513.5753361124</v>
       </c>
     </row>
     <row r="148">
@@ -3529,17 +3813,23 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[20 46 12 24 13 22 10 11 19 32 14 39  2 33 38 31 47  4 28 41 23  9 25  3
- 34 44  1 40 21 15  0  8 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+          <t>[ 24  32 121  27  28  31  25  37  38  33  41  42  29  26  30  79  78  77
+ 116  83  80 125  81  82  75  76  17  16  20  19  11  13  40  35  36  39
+  34  15   0 104  14 107  21   3  22  23   5 105 113   6   1  50  56  43
+ 102  44  53 120  49  12 119  10   8  18  71   7  73  72  66  67  74  68
+  69  70   2   9 114   4  55  51 123  46  52  47 117  48  45  93  94 122
+  96  92 126  54  65  99  57  63  89 115  59  61  60  90  58 112 124  88
+  91  64  98 103 109 108  95  86  87  85  84 118  62 101 100  97 110 111
+ 106]</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>13454</v>
+        <v>159794.3685701603</v>
       </c>
     </row>
     <row r="149">
@@ -3550,17 +3840,23 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[41  9 23 47  4 28  1 25  3 34 44 31 38 24 13 33 12 20 46 10 22  2 40 15
- 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 32 121  27  24  28  31  25  37  38  41  33  42  29  26  30  79  78  77
+ 116  83  80 125  81  82  75  76  17  16  20  19  11  13  40  35  36  39
+  34  15   0   6 104  14 105 107  21   3  22  23   5 113  10   8  18  71
+   7  73  72  66  67  74  68  69  70   2 119  12   1  50  56  43 102  44
+  53 120  49 114   9   4  55  51 123  46  52  47 117  48  45  93  94 122
+  96  92 126  54  65  99  57  63  89 115  59  61  60  90  58 112 124  88
+  91  64 111 110 106  97 100 101  62 118  95 108 109  84  85  86  87 103
+  98]</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>13525</v>
+        <v>160142.4469388589</v>
       </c>
     </row>
     <row r="150">
@@ -3571,17 +3867,23 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[30 43 17  6 35 27 45 37  8  0  7 39 14 32 11 19 10 22  2 21 15 40 33 13
- 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44 29  5 36 18 26 42 16]</t>
+          <t>[ 71   7  18  21   3  22  23 107  20  16  19   5 105  14   8  10 113 104
+   6 119   9   2  89 115  59  61  60  90  66  72  73  17  76  78  79  30
+  11  13  40  29  26  25  37  38  33  42  35  36  15   0  12 114  49   1
+  50 120   4  51 123  55  56  34  39  41  24  32 121  28  31  77  75  67
+  70  69  68  74 116  83  80 125  81  82  27  43  53  44 102  99  57  63
+  58 112  65  54  46  52  48 117  47  45  93  92  94 122  96 126 110 111
+  64 124  88  91  98 103 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>13551</v>
+        <v>160188.0088227377</v>
       </c>
     </row>
     <row r="151">
@@ -3592,17 +3894,23 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>[38 31 20 12 24 13 22 10 46 19 11 14 39  2 33 47  4 28 41 23  9 25  3 34
- 44  1 40 21 15  0  8 32 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  7]</t>
+          <t>[ 88  91 124 112  64  98 103  58  61  60  90  63  57  99  89  59 115   2
+   9 114  12 119   6 113  10   8  23  22   3  21  18   7  71  66  72  73
+  17  20  16 107   5 105 104  14  19   0  49  51  65  54 123   4  55 120
+  50   1  15  36  35  34  56  53  46  48  52 117  47  45  93 111 110  44
+  43 102  39  40  13  11  30  26  29  42  33  38  41  37  25  78  76  67
+  70  69 109  84  85  86  87 108  95  68  74  75  77  79 116  83  80 125
+  81  82  24  32 121  27  28  31 122  94  92 126  96 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>13561</v>
+        <v>160366.9275498409</v>
       </c>
     </row>
     <row r="152">
@@ -3613,17 +3921,23 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>[37 30 43 45 14  8  0  7 39 11 32 17  6 35 27  5 29 36 18 26 42 16 19 10
- 22  2 21 15 40 33 13 12 46 20 24 38 31 47  4 28  1 41 23  9 25  3 34 44]</t>
+          <t>[108  95  86  87  85  84 109  69  68  70  67  72  73  66   7  71  17  76
+  75  74  83  80 116  77  78  79  20  18  21   3  22  23   8  10   5 107
+  16  19  14 105 113 104   6 119   2 115  59  58  61  60  89  90  57  63
+  99   9 114  12   0  15  11  30  26  29  13  40  36  35  34   1  49  50
+ 120   4  51 123  55  56  53  43  39  42  33  38  25  37  24  32  28  31
+ 121  27  41 125  81  82 118  62 101 100  96 122  94 102  44  46  54  65
+ 112 124 103  91  88  98  64  52  48 117  47  45  93  92 126 110 111 106
+  97]</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>13666</v>
+        <v>160513.0201110723</v>
       </c>
     </row>
     <row r="153">
@@ -3634,17 +3948,23 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>[19 32 11 14 45 35 17  6 27 29  5 36 18 26 42 16 43 30 37  8 39 10 46 20
- 12 22 13 24 38 31 47  4 33  2 21  0  7 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[119   6  12 114   9   2 113 104 105   5  14 107  23  10   8  22   3  21
+  19   0  15   1  49  50 120   4  51 123  55  56  53  34  36  35  40  13
+  11  16  20  18   7  71  17  76  73  72  66 115  89  59  60  90  99  57
+  63  61  58 112  65  54  46  52  48 117  47  44  43 102  39  42  29  30
+  26  25  33  38  37  41  78  79  77  75  67  70  69  68  74 116  83  80
+ 125  24  32 121  27  28  31 122  94  92  93  45 111 110  64 124  88  91
+  98 103 109 108  95  86  84  85  87 118  62  81  82  96 126 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>13848</v>
+        <v>160868.766867437</v>
       </c>
     </row>
     <row r="154">
@@ -3655,17 +3975,23 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>[31 38 20 12 24 13 22 10 46 19 11 14 32 45 39  2 33 47  4 41 23  9 34 44
- 25  3 28  1 40 21 15  0  8 37 30 43 17 35  6 27 29 42 26  5 36 18 16  7]</t>
+          <t>[121  27  32  24  28  31  25  37  38  41  33  42  29  26  30  11  13  40
+  35  36  39  34  15   0   6 104  14  19  16  20  78  79  77 116  83  80
+ 125  82  81  75  76  17  21   3 107 105   5  23  22  18  71   7   8  10
+ 113 119  12   1  50  56  43 102  44  53 120  49 114   9   2  89 115  59
+  61  60  90  99   4  55  51 123  46  52  47 117  48  45  93  94 122  96
+  92 126  73  72  66  67  74  68  69  70  58  57  63  65  54 112 124  88
+  91  64 111 110 106  97 100 101  62 118  95 108 109  84  85  86  87 103
+  98]</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>13906</v>
+        <v>161123.6772105724</v>
       </c>
     </row>
     <row r="155">
@@ -3676,17 +4002,23 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>[15 21  2  0  7  8 39 14 11 10 22 13 33 40 24 12 46 19 32 45 37 30 43 17
-  6 35 27  5 29 36 18 26 42 16 20 38 47  4 28  1 41 31 23  9 25  3 34 44]</t>
+          <t>[101 100  82  81 125  80  83 116  77  75  74  68  69  67  73  76  78  79
+  31  28  32  24 121  27  25  37  38  33  42  29  26  30  11  13  40  35
+  36  41  39  34  15   0  19  16  20  17  72  66  71  18  21   3  22  23
+ 107  14 105   5   7   8  10 113 104   6 119  12 114   9   2  89 115  59
+  61  60  90  58  70  95  62 118 108  87  86  85  84 109  99  57  63  49
+   1  50  56 120   4  55  53  43 102  44 122  96  94  92 126  97  51 123
+  54  65 112 124  88  91 103  98  64  46  52  47 117  48  45  93 111 110
+ 106]</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>13931</v>
+        <v>161285.788378958</v>
       </c>
     </row>
     <row r="156">
@@ -3697,17 +4029,23 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>[ 1 28  4 47 41 25  3  9 23 34 44 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[  6   0  15 104 113 119  12 114   9   2  10   8   5 105  14 107  23  22
+   3  21  19  16  20  18  71   7  17  76  11  13  40  36  35   1  49  50
+ 120   4  55  51 123  56  53  34  39  42  29  30  26  25  37  33  38  41
+  43  44 102  47  52  46  48 117  45  54  65  99  57  63  90  89 115  59
+  60  61  58  66  72  73  78  79  77  75  67  70  69  68  74 116  83  80
+ 125  24  32 121  27  28  31 122  94  92  93 111 110 112 124  88  91  64
+  98 103 109 108  95  86  84  85  87 118  62  81  82  96 126 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>13953</v>
+        <v>161359.7716198275</v>
       </c>
     </row>
     <row r="157">
@@ -3718,17 +4056,23 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>[ 7  0  8 37 30 43 45 14 39 21 15  2 22 10 11 32 19 46 12 13 33 40 24 20
- 38 31 47  4 28  1 41 23  9 25  3 34 44 35 17  6 27  5 29 36 18 26 42 16]</t>
+          <t>[ 91  88 124  98  64 112  63  57  90  60  61  59  58 115  89  99   2   9
+ 114  12 119   6 113  10   8  23  22   3  21  18   7  71  66  72  73  17
+  20  16 107   5 105 104  14  19   0  49  51  65  54 123   4  55 120  50
+   1  15  36  35  34  56  53  46  48  52 117  47  45  93 111 110  44  43
+ 102  39  40  13  11  30  26  29  42  33  38  41  37  25  78  76  67  70
+  69 109 103  84  85  86  87 108  95  68  74  75  77  79 116  83  80 125
+  81  82  24  32 121  27  28  31 122  94  92 126  96 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>14028</v>
+        <v>161505.3382741036</v>
       </c>
     </row>
     <row r="158">
@@ -3739,17 +4083,23 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>[34 44  9 25  3 41 23 47  4 28  1 38 31 24 13 12 20 46 10 22 33 40  2 21
- 15 39 11 19 32 14 45  8  0  7 37 30 43 17 35  6 27 29 42 26  5 36 18 16]</t>
+          <t>[ 57  63  99  90  60  61  59  89 115   2   9 114  12 119   6 113  10   8
+  23   5 105 104  14 107  22   3  21  18   7  71  20  16  19   0  15  49
+   4  51 123  55 120  50   1  56  53  54  65 112 124  58  66  72  73  17
+  76  78  11  13  40  36  35  34  39  42  29  30  26  25  33  38  37  41
+  43  44 102  46  52  48 117  47  45  93 111 110  64  88  91  98 103  70
+  67  69  68  74  75  77  79 116  83  80 125  81  82  24  32 121  27  28
+  31 122  94  92 126  96 109 108  95  86  84  85  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>14039</v>
+        <v>161746.4217977955</v>
       </c>
     </row>
     <row r="159">
@@ -3760,17 +4110,23 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>[ 9 23 41 25  3 34 44 47  4 28  1 38 31 24 13 12 20 46 10 22 33  2 40 15
- 21 39 11 14 32 19 45  8  0  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[102  44  43  53  56  50   1  34  39  35  36  40  42  33  41  38  37  29
+  13  15   0   6  12  49 120  55   4  51 123  46  52  47 117  48  45  93
+  92  94 122  27 121  32  24  25  26  30  11 104 113 119 114   9   2  10
+ 105  14   5 107  19  16  20  21   3  23  22  18   8   7  71  17  76  78
+  79  77  75  73  72  66 115  89  99  57  63  90  60  59  61  58  54  65
+ 112  64 111 110 126  96  28  31 116  83  80  74  67  70  69  68 125  81
+  82  95 108 109  84  85  86  87 124  88  91  98 103 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>14046</v>
+        <v>162099.786521694</v>
       </c>
     </row>
     <row r="160">
@@ -3781,17 +4137,23 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>[25  3  9 41 23 34 44  1 28  4 47 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 99  57  63  90  60  89 115  59  61   2   9 114  12 119   6 113  10   8
+  23   5 105 104  14 107  22   3  21  18   7  71  20  16  19   0  15  49
+   4  51 123  55 120  50   1  56  53  43  44 102  34  36  35  40  13  11
+  30  26  29  42  33  39  38  41  37  25  78  17  76  73  72  66  58 112
+  65  54  46  52  48 117  47  45  93 111 110  64 124  88  91  98 103  70
+  67  69  68  75  77  79 116  83  80  74 109 108  95  86  84  85  87 118
+  62 125  81  82  24  32 121  27  28  31 122  94  92 126  96 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>14076</v>
+        <v>162219.1229891454</v>
       </c>
     </row>
     <row r="161">
@@ -3802,17 +4164,23 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>[33 13 24 12 22  2 21 15 40 28  4 47 38 31 20 46 10 11 14 39  0  8  7 37
- 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16 41  1 25  3  9 23 34 44]</t>
+          <t>[ 26  30  29  40  13  11  25  37  38  33  42  35  36  34  39  41  24  32
+ 121  27  28  31  79  78  76  17  16  20  19 107  14 105   5  23   3  21
+  18  22  71   7   8  10 113 104   0  15   6 119  12   1  50  49 114   9
+   2  89 115  59  61  60  90  99  57  63   4 120  56  53  43  44 102  55
+  51 123  54  65  46  52  47 117  48  45  93  92  94 122  96  77  75  73
+  72  66  67  70  69  74 116  83  80 125  81  82  68 108  95 109  58 112
+ 124  88  91  64  98 103  84  85  86  87 118  62 101 100 126 110 111 106
+  97]</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>14273</v>
+        <v>163010.2848085221</v>
       </c>
     </row>
     <row r="162">
@@ -3823,17 +4191,23 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>[39 14 11 10 22  2 21  0  8 37 45 32 19 46 12 13 24 33 15  7 30 43 17 35
-  6 27  5 29 36 18 26 42 16 20 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+          <t>[ 90  60  61  59  89 115  58  57  63  99   2   9 119 114  12  49   6 113
+  10   8  23  22   3  21  18   7  71   5 105  14 104 107  19  16  20  17
+  66  72  73  76  78  79  11   0  15   1  50   4  51 123  55 120  56  53
+  34  36  35  13  40  29  30  26  25  42  33  38  37  41  39  43  44 102
+  46  54  65 112 124  88  91  98  64  48  52 117  47  45  93 111 110  92
+  94 122  27 121  32  24  28  31  77  75  67  70  69  68  74 116  83  80
+ 125  81  82 109 108  95  86  84  85  87 103 118  62 101 100  96 126 106
+  97]</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>14377</v>
+        <v>163064.8474266052</v>
       </c>
     </row>
     <row r="163">
@@ -3844,17 +4218,23 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>[ 3 25  9 34 44 41 23 47  4 28  1 38 31 24 13 33 40  2 22 12 20 46 10 11
- 14 39 21 15  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 23  22   3  21 107   5 105  14  19  16  20  18  71   7   8  10 113 104
+   6 119   9   2  89 115  59  61  60  90  99 114  12   0  15  13  11  30
+  26  29  40  36  35  34   1  49  50 120   4  51 123  55  56  53  43  39
+  42  33  38  37  25  78  17  76  73  72  66  67  70  69  75  77  79 116
+  83  80  74  68  58  57  63 112  65  54  46  52  48 117  47  44 102  41
+  24  32 121  27  28  31 122  94  92  93  45 111 110  64 124  88  91  98
+ 103 109 108  95  86  84  85  87 118 125  81  82  62 101 100  96 126 106
+  97]</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>14378</v>
+        <v>163179.1184711136</v>
       </c>
     </row>
     <row r="164">
@@ -3865,17 +4245,23 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>[29  5 36 18 26 42 16 27  6 35 17 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 61  59  60  90  89 115  58  57  63  99   2  10   8  23  22   7  71  18
+   3  21 107   5 105 113 104 119   9 114  12   6  14  19  16  20  66  72
+  73  17  76  67  70  69  68  74  75  77  78  79  30  11   0  15   1  49
+   4  51 123  55 120  50  56  53  34  36  35  13  40  29  26  25  37  33
+  42  39  38  41  43  44 102  46  54  65 112 124  88  91  98  64  48  52
+ 117  47  45  93 111 110  92  94 122  27 121  24  32  28  31 116  83  80
+ 125  81  82 109 108  95  86  84  85  87 103 118  62 101 100  96 126 106
+  97]</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>14406</v>
+        <v>163199.3279323686</v>
       </c>
     </row>
     <row r="165">
@@ -3886,17 +4272,23 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>[23  9 41 47  4 38 31 20 24 13 12 22 10 46 19 11 14 39  2 33 28  1 25  3
- 34 44 40 15 21  0  8 32 45 35 17  6 27 29 42 26  5 36 18 16 43 30 37  7]</t>
+          <t>[ 81  82 125  80  83 116  77  75  74  68  69  67  73  76  78  79  30  26
+  25  24  28  31  32 121  27  37  38  33  29  11  13  40  42  41  39  35
+  36  15   0  19  16  20  17  72  66  71  18  21   3  22  23 107  14 105
+   5   7   8  10 113 104   6 119  12 114   9   2  89 115  59  61  60  90
+  58  70  95 108 118  62 101 100  96 122  94  34   1  50  49 120  56  53
+  43 102  44   4  55  51 123  99  57  63 112  65  54  46  52  47 117  48
+  45  93  92 126 110 111  64 124 109  86  87  85  84 103  88  91  98 106
+  97]</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>14453</v>
+        <v>163383.9371046752</v>
       </c>
     </row>
     <row r="166">
@@ -3907,17 +4299,23 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>[24 13 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 15   0   6 104 113 105  14   5 107  19  11  13  40  36  35  34   1  50
+  49  12 119 114   9   2  10   8  23   3  21  16  20  22  18  71   7  17
+  76  30  26  29  42  33  38  39  41  37  25  79  78  77  75  73  72  66
+ 115  89  59  60  90  99  57  63   4 120  56  53  43  44 102  55  51 123
+  54  65  46  52  48 117  47  45  93  92  94 122  27 121  32  24  28  31
+ 116  83  80  74  67  70  69  68  61  58 112 124  88  91  64  98 103 109
+ 108  95  86  84  85  87 118 125  81  82  96 126 110 111 106  97 100 101
+  62]</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>14466</v>
+        <v>163395.6889314416</v>
       </c>
     </row>
     <row r="167">
@@ -3928,17 +4326,23 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>[42 26 18 36  5 29 16 27 35  6 17 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[125  81  82  80  83 116  77  75  74  68  69  67  73  76  78  79  30  26
+  25  24  28  31  32 121  27  37  38  33  29  11  13  40  42  41  39  35
+  36  15   0  19  16  20  17  72  66  71  18  21   3  22  23 107  14 105
+   5   7   8  10 113 104   6 119  12 114   9   2  89 115  59  61  60  90
+  58  70 108  95 118  62 101 100  96 122  94  34   1  50  49 120  56  53
+  43 102  44   4  55  51 123  99  57  63 112  65  54  46  52  47 117  48
+  45  93  92 126 110 111  64 124 109  86  87  85  84 103  88  91  98 106
+  97]</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>14500</v>
+        <v>163504.4112890394</v>
       </c>
     </row>
     <row r="168">
@@ -3949,17 +4353,23 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>[16 26 18 36  5 29 42 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 62 118  95 108  68  74  83  80 125  81  82 116  77  75  69  70  67  73
+  72  66  76  17  78  79  30  26  25  24  28  31  32 121  27  37  38  33
+  29  11  16  20  71   7  18  21   3  22  23 107  19  14 105   5   8  10
+ 113 104   6   0  15  13  40  35  36  42  41  39  34   1 119   2 115  59
+  58 109  86  87  85  84 103  61  60  89  90  57  63  99   9  12 114  49
+  50 120   4  51 123  55  56  53  43  44 102  94 122  96 101 100  97  92
+  47  52  46  48 117  45  54  65 112 124  88  91  98  64  93 111 110 126
+ 106]</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>14506</v>
+        <v>163508.4532635878</v>
       </c>
     </row>
     <row r="169">
@@ -3970,17 +4380,23 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>[ 6 17 35 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39 37  8  0
-  7 21  2 22 12 20 24 13 33 15 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[117  47  52  48  45  46  93  53  56 120  55 123  51   4  49  50   1  44
+ 102  43  34  36  35  39  42  33  38  41  40  15   0  12 114   9 119   6
+ 104 113 105  14   5 107  23  10   8   2  99  54  65 112  63  57  90  60
+  89 115  59  61  58  22   3  21  19  13  11  29  26  30  25  37  24  32
+ 121  27  28  31  94  92 111 110 126 122  96  79  78  16  20  18  71   7
+  17  76  73  72  66  67  70  69  75  77 116  83  80  74  68 109 124  88
+  91  64  98 103  84  85  86  87 108  95 125  81  82  62 118 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>14516</v>
+        <v>163563.2942578927</v>
       </c>
     </row>
     <row r="170">
@@ -3991,17 +4407,23 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>[21 15  2  0  8 39 14 11 10 22 13 33 40  7 37 30 45 32 19 46 12 24 20 38
- 31 47  4 28  1 41  9 23 25  3 34 44 43 17  6 35 27  5 29 36 18 26 42 16]</t>
+          <t>[ 35  36  34  40  13  29  42  33  39  38  41  37  25  26  30  11  15   0
+   1  50  56  53  43  44 102 120  49  12   6 104  14 105   5 107  19  16
+  20  21   3  23  22 113 119 114   9   2  10   8  18  71   7  17  76  78
+  79  77  75  73  72  66 115  89  59  60  90  99   4  55  51 123  54  46
+  52  47 117  48  45  93  92  94 122  27 121  32  24  28  31 116  83  80
+  74  67  70  69  68  61  57  63  58 112  65  64 124  88  91  98 103 109
+ 108  95  86  84  85  87 125  81  82  96 126 110 111 106  97 100 101  62
+ 118]</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>14525</v>
+        <v>163598.5326535172</v>
       </c>
     </row>
     <row r="171">
@@ -4012,17 +4434,23 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>[13 24 12 22 10 46 20 38 31 47  4 33  2 21 15 39 11 14 32 19 45  8  0  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 73  72  66  71   7  18  17  76  20  16  21   3  22  23 107  19  14 105
+   5   8  10 113 104   6   0  15  11  30  78  79  77  75  67  70  69  68
+  74 116  83  80 125  81  82  26  29  13  40  36  35  34   1 119   2 115
+  89  59  61  60  90  58  57  63  99   9  12 114  49  50 120   4  51 123
+  55  56  53  43  39  42  33  38  37  25  24  32  28  31 121  27  41 102
+  44  52  46  54  65 112 124  88  91 103 109 108  95  86  84  85  87 118
+  62 101 100  96 122  94  92  47 117  48  45  93 111 110  64  98 126 106
+  97]</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>14536</v>
+        <v>163862.997737488</v>
       </c>
     </row>
     <row r="172">
@@ -4033,17 +4461,23 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>[32 45 14 11 19 46 10 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 16 22
- 12 20 24 13  2 21  0  7 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[ 12 114  49 119   6   0  15   1  50 120   4  55  51 123   9   2 113 104
+ 105   5  14 107  23  10   8  22   3  21  19  16  20  18  71   7  17  76
+  11  13  36  35  34  40  29  42  39  56  53  43  44 102  33  38  41  37
+  25  26  30  78  79  73  72  66 115  89  99  57  63  90  60  59  61  58
+ 112  65  54  46  52  48 117  47  45  93 111 110  92  94 122  27 121  32
+  24  28  31  77  75  67  70  69  68  74 116  83  80 125  81  82  95 108
+ 109  84  85  86  87 124  88  91  64  98 103 118  62 101 100  96 126 106
+  97]</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>14554</v>
+        <v>163926.4212815719</v>
       </c>
     </row>
     <row r="173">
@@ -4054,17 +4488,23 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>[26 18 36  5 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 86  85  84  87 108  95 109  70  69  68  74  67  72  73  66   7  71  18
+  22   3  21  20  17  76  75  77 116  83  80 125  81  82 118  62  78  79
+  16  19 107  23   8  10 115  59  58  61  60  89  90  57  63  99   2 113
+   5 105  14 104   6 119   9 114  12   0  15  11  30  26  29  13  40  36
+  35  34   1  49  50 120   4  51 123  55  56  53  43  39  42  33  38  25
+  37  41  24  32  28  31 121  27 122  94 102  44  46  54  65 112 124 103
+  91  88  98  64  48  52 117  47  45  93 111 110  92 126  96 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>14557</v>
+        <v>164528.3358240715</v>
       </c>
     </row>
     <row r="174">
@@ -4075,17 +4515,23 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>[ 5 36 18 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39  8 37  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 63  57  99  90  60  61  59  89 115   2   9 114  12 119   6 113  10   8
+  23   5 105 104  14 107  22   3  21  18   7  71  20  16  19   0  15  49
+   4  51 123  55 120  50   1  56  53  54  65 112 124  58  66  72  73  17
+  76  78  11  13  40  36  35  34  39  42  29  30  26  25  33  38  41  37
+  79  77  75  67  70  69  68  74 116  83  80 125  81  82  24  32 121  27
+  28  31  43  44 102  46  52  48 117  47  45  93 111 110  64  88  91  98
+ 103 109 108  95  86  84  85  87 118  62 101 100 122  94  92 126  96 106
+  97]</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>14579</v>
+        <v>164990.6067013682</v>
       </c>
     </row>
     <row r="175">
@@ -4096,17 +4542,23 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>[47  4 28 41  9 23 38 31 24 13 12 20 46 10 22 33  2 21 15 40  1 25  3 34
- 44 11 14 39  8  0  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 38  33  42  41  37  25  29  40  35  36  39  34  13  11  26  30  79  78
+  24  32 121  27  28  31  15   0   1  50  56  43 102  44  53 120  49  12
+   6 104  14 105   5 107  19  16  20  21   3  23  22  18  71   7  17  76
+  73  72  66   8  10 113 119 114   9   2  99   4  55  51 123  46  52  47
+ 117  48  45  93  92  94 122  96  77 116  83  80  75  74  67  70  69  68
+ 125  81  82 115  89  59  60  90  61  58  57  63  65  54 112 124  88  91
+  64 111 110 126 106  97 100 101  62 118  95 108 109  84  85  86  87 103
+  98]</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>14672</v>
+        <v>165158.9517581015</v>
       </c>
     </row>
     <row r="176">
@@ -4117,17 +4569,23 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>[36 18  5 26 29 42 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 89 115  59  61  60  90  57  63  99   2  10   8  23  22   3  21  18   7
+  71  66  58   9 119 113   5 105  14 107  19  16  20 104   6  12 114  49
+   4  51 123  55 120  50   1   0  15  13  11  30  26  29  40  36  35  34
+  56  53  43  44 102  39  42  33  38  37  25  17  76  73  72  67  70  69
+  68  74  75  77  78  79 116  83  80 125  81  82  24  32 121  27  28  31
+  41  65 112 124  88  91  98  64  54  46  52  48 117  47  45  93 111 110
+  92  94 122  96 126 106 109 108  95  86  84  85  87 103 118  62 101 100
+  97]</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>14680</v>
+        <v>165246.3910573639</v>
       </c>
     </row>
     <row r="177">
@@ -4138,17 +4596,23 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>[ 0  8  7 21 15  2 39 14 11 32 45 37 30 43 17  6 35 27  5 29 36 18 26 42
- 19 10 22 13 33 40 24 12 46 20 38 31 47  4 28  1 41 23  9 25  3 34 44 16]</t>
+          <t>[ 44 102  43  53  56 120  50   1  34  39  35  36  40  42  33  38  41  37
+  29  13  15   0   6  49   4  55 123  51  46  52  47 117  48  45  93  92
+  94 122  27 121  32  24  25  26  30  11 104 113 119  12 114   9   2  10
+ 105  14   5 107  19   3  23  22  21  16  20  18   8   7  71  17  76  78
+  79  77  75  73  72  66 115  89  99  57  63  90  60  59  61  58  54  65
+ 112  64 111 110 126  96  28  31 116  83  80  74  67  70  69  68 108 109
+  95  86  84  85  87 124  88  91  98 103 125  81  82  62 118 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>14688</v>
+        <v>165390.4150878152</v>
       </c>
     </row>
     <row r="178">
@@ -4159,17 +4623,23 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>[ 2 21 15  0 39 22 10 11 14  8  7 37 45 32 19 46 12 13 33 40 24 20 38 31
- 47  4 28  1 41  9 23 25  3 34 44 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 87  86  85  84 108  95 109  70  69  68  74  67  72  73  66   7  71  18
+  17  76  75  77 116  83  80 125  81  82 118  62  78  79  20  16  21   3
+  22  23   8  10 115  59  58  61  60  89  90  57  63  99   2 113   5 107
+  19  14 105 104   6 119   9 114  12   0  15  11  30  26  29  13  40  36
+  35  34   1  49  50 120   4  51 123  55  56  53  43  39  42  33  38  25
+  37  24  32  28  31 121  27  41 102  44  46  54  65 112 124 103  91  88
+  98  64  48  52 117  47  45  93 111 110  92  94 122  96 126 106 101 100
+  97]</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>14701</v>
+        <v>165472.6586801462</v>
       </c>
     </row>
     <row r="179">
@@ -4180,17 +4650,23 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>[18 36  5 26 42 29 16 27  6 17 35 43 30 45 32 19 11 14 39 37  8  0  7 21
-  2 10 46 20 12 22 13 24 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[  4  55 120  49 114  12  50  56  53  51 123  54  65  99   9 119   6   1
+   0  15  36  35  34  43  44 102  39  42  40  13  11 104 113 105   5  14
+ 107  23  10   8   2  57  63  90  60  89 115  59  61  58  22   3  21  19
+  16  20  18  71   7  17  76  78  30  29  33  38  41  37  25  26  79  73
+  72  66  67  70  69  75  77 116  83  80  74  68 109 112  46  52  48 117
+  47  45  93 111 110  92  94 122  27 121  32  24  28  31  96 126 106  64
+ 124  88  91  98 103  84  85  86  87 108  95 125  81  82  62 118 101 100
+  97]</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>14718</v>
+        <v>165523.2402767755</v>
       </c>
     </row>
     <row r="180">
@@ -4201,17 +4677,23 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>[28  4 47 41  1 33 13 24 12 22  2 40 15 21  0 39 10 46 20 38 31 23  9 25
-  3 34 44 11 14 32 19 45  8  7 37 30 43 17 35  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 92  94 122 126 102  44  43  53  56  50  34  39  41  38  33  42  35  36
+  40  29  37  25  26  30  13  15   1 120  55   4  49  12 114 119   6   0
+ 104 113 105  14  11  19 107   5  23   3  21  16  20  22  18  71   7   8
+  10   9  51 123  47 117  52  48  45  93  46  54  65  99   2  89 115  59
+  60  90  57  63  61  58  66  17  76  78  79  24  32 121  27  28  31  96
+  77 116  83  80  75  73  72  67  70  69  74  68 125  82  81  95 108 109
+ 112 111 110 106  64  88 124  91  98 103  84  85  86  87 118  62 101 100
+  97]</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>14740</v>
+        <v>165632.744571167</v>
       </c>
     </row>
     <row r="181">
@@ -4222,17 +4704,23 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>[11 14 32 45 19 10 22 39  8  0 21  2 13 12 46 20 24 33 15  7 37 30 43 17
- 35  6 27 29  5 36 18 26 42 16 38 31 47  4 28 40  1 41 23  9 25  3 34 44]</t>
+          <t>[ 36  35  34  40  13  15   0   1  50  56 120  49  12   6 104  14 105   5
+ 107  19  11  29  42  33  39  38  41  37  25  26  30  16  20  21   3  23
+ 113 119 114   9   2  10   8  22  18  71   7  17  76  78  79  77  75  73
+  72  66 115  89  59  60  90  99   4  55  53  43  44 102  51 123  54  46
+  52  47 117  48  45  93  92  94 122  27 121  32  24  28  31 116  83  80
+  74  67  70  69  68  61  57  63  58 112  65  64 124  88  91  98 103 109
+ 108  95  86  84  85  87 125  81  82  96 126 110 111 106  97 100 101  62
+ 118]</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>14827</v>
+        <v>165747.6850959108</v>
       </c>
     </row>
     <row r="182">
@@ -4243,17 +4731,23 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>[35 17  6 27  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
-  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+          <t>[124  88  91  98 112  63  57  90  60  61  59  58 115  89  99   2   9 114
+  12 119   6 113  10   8  23  22   3  21  18   7  71  66  72  73  17  20
+  16 107   5 105 104  14  19   0  15  49   4  51 123  65  54  64 103 109
+  70  67  69  68  74  75  76  78  79  11  13   1  50 120  55  56  53  46
+  48  52 117  47  45  93  44  43  34  36  35  40  29  30  26  42  33  39
+  38  37  25  41 102  92  94 122  27 121  32  24  28  31  77 116  83  80
+ 125  81  82 108  95  84  85  86  87 118  62 101 100  96 126 111 110 106
+  97]</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>14850</v>
+        <v>165811.627352565</v>
       </c>
     </row>
     <row r="183">
@@ -4264,17 +4758,23 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>[46 10 11 19 32 14 39 22 12 20 24 13  2 21  0  8 45 35 17  6 27 29  5 36
- 18 26 42 16 43 30 37  7 15 33 38 31 47  4 28 40 41 23  9 25  3  1 34 44]</t>
+          <t>[104 113 105  14   5 107  23  22   3  21  19  16  20  18   8  10   6   0
+  15 119  12 114   9   2  89 115  59  60  90  99  57  63  49   1  50 120
+   4  55  51 123  56  36  35  13  11  40  29  30  26  25  37  33  42  34
+  39  38  41  43  53  44 102  71   7  17  76  73  72  66  61  58  67  78
+  79  77  75  74 116  83  80 125  81  82  24  32 121  27  28  31 122  94
+  92  47  52  46  48 117  45  54  65 112 124  88  91  64  98 103  70  69
+  68 109 108  95  86  84  85  87 118  62 101 100  96 126  93 111 110 106
+  97]</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>14920</v>
+        <v>165910.4479171345</v>
       </c>
     </row>
     <row r="184">
@@ -4285,17 +4785,23 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>[27  6 17 35  5 29 36 18 26 42 16 43 30 45 32 14 11 19 46 10 39  8 37  0
-  7 21  2 22 12 20 24 13 33 15 40 38 31 47  4 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 45 117  48  52  47  46  93 111 110  54 123  55 120  56  53  44 102  43
+  50   4  51  65  49 114  12   1  34  36  35  39  42  33  38  41  40  15
+   0   6 119   9  99  57  63 112  64  88  91 124  90  60  89   2 113 104
+ 105  14   5 107  23  10   8  22   3  21  19  13  11  29  26  30  25  37
+  94  92 126 122  27 121  32  24  28  31  79  78  16  20  18  71   7 115
+  59  61  58  66  72  73  17  76  77  75  67  70  69  68  74 116  83  80
+ 125  81  82  96 106  98 103 109 108  95  86  84  85  87 118  62 101 100
+  97]</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>15043</v>
+        <v>166302.5397004439</v>
       </c>
     </row>
     <row r="185">
@@ -4306,17 +4812,23 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>[ 4 47 28 41  9 23 38 31 24 13 33 22 12 20 46 10  2 21 15 40  1 25  3 34
- 44 11 14 39  0  8  7 37 45 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16]</t>
+          <t>[ 49  12 114 119   6   0   1  50 120   4  55  51 123  56  53  43  44 102
+  34  36  15 104 113   9   2  10   8   5 105  14 107  23  22   3  21  19
+  16  20  18  71   7  11  13  40  35  39  42  33  29  30  26  25  37  38
+  41  24  32 121  27  28  31  79  78  17  76  73  72  66 115  89  99  57
+  63  90  60  61  59  58 112  65  54  46  52  48 117  47  45  93 111 110
+  92  94 122  96  77  75  67  70  69  68  74 116  83  80 125  81  82  95
+ 108 109  84  85  86  87 124  88  91  64  98 103 118  62 101 100 126 106
+  97]</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>15102</v>
+        <v>166351.068200222</v>
       </c>
     </row>
     <row r="186">
@@ -4327,17 +4839,23 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>[17  6 35 27 43 30 45 32 14 11 19 29  5 36 18 26 42 16 37  8 39  0  7 21
-  2 10 46 12 22 13 24 20 38 31 47  4 33 15 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 54  65 123  51  55   4 120  56  53  46  48  52 117  47  45  93  44  43
+ 102  50  49 114  12   9 119   6   1   0  15  36  34  35  40  13 104 113
+   2  99  57  63 112  90  60  89 115  59  61  58  10   8   5 105  14 107
+  23  22   3  21  19  16  20  18   7  71  17  76  11  29  42  39  33  38
+  41  37  25  26  30  78  79  73  72  66  67  70  69  75  77 116  83  80
+  74  68 109 124  88  91  64  98 103  84  85  86  87 108  95  24  32 121
+  27  28  31  94  92 111 110 126 122  96 125  81  82 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>15484</v>
+        <v>166601.069598616</v>
       </c>
     </row>
     <row r="187">
@@ -4348,17 +4866,23 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>[14 11 32 45 39  8 37 30 43 17 35  6 27 29  5 36 18 26 42 19 10 22  2 21
-  0  7 15 13 12 46 20 24 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44 16]</t>
+          <t>[115  89  59  61  60  90  58   2  10   8  23  22   3  21  18   7  71  66
+  72  73  17  20  16 107   5 105 113 104  14  19 119   9  99  57  63 114
+  12   6   0  15   1  49   4  51 123  55 120  50  56  53  34  36  35  13
+  11  30  26  29  40  42  33  38  37  25  78  76  67  70  69  68  74  75
+  77  79 116  83  80 125  81  82  24  32 121  27  28  31  41  39  43  44
+ 102  46  54  65 112 124  88  91  98  64  48  52 117  47  45  93 111 110
+  92  94 122  96 126 109 108  95  86  84  85  87 103 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>15509</v>
+        <v>166885.4987808057</v>
       </c>
     </row>
     <row r="188">
@@ -4369,17 +4893,23 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>[10 22 12 46 11 14 39 32 19 45  8  0 21  2 13 24 20 38 31 47  4 33 15  7
- 37 30 43 17 35  6 27 29  5 36 18 26 42 16 40 28 41 23  9 25  3  1 34 44]</t>
+          <t>[ 66  72  73  71   7  18  22   3  21  20  16  17  76  67  70  69  68  74
+  75  77  78  79  19 107  23   8  10   5 105  14 113 104   6 119   2 115
+  89  59  61  60  90  58  57  63  99   9 114  12   0  15  11  13  40  29
+  30  26  25  37  38  33  42  35  36   1  49  50 120   4  51 123  55  56
+  34  39  41  24  32 121  28  31  27 116  83  80 125  81  82  95 108 109
+  84  85  86  87 118  62 103 124 112  65  54  46  52  48 117  47  53  43
+  44 102  94 122  96  92  93  45 111 110  64  88  91  98 126 106  97 100
+ 101]</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>15538</v>
+        <v>166937.0074261633</v>
       </c>
     </row>
     <row r="189">
@@ -4390,17 +4920,23 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>[12 24 13 22 10 46 20 38 31 47  4 33  2 39 11 14 32 19 45  8  0 21 15 40
- 28 41 23  9 25  3  1 34 44 35 17 43 30 37  7  6 27 29  5 36 18 26 42 16]</t>
+          <t>[114  12  49 119   9   6   0  15   1  50 120   4  51 123  55  56  53  43
+  34  36  35  40  13 104 113 105   5  14 107  23  10   8   2  99  57  63
+  90  60  89 115  59  61  58  22   3  21  19  16  20  18   7  71  17  76
+  11  29  42  39  33  38  41  37  25  26  30  78  79  73  72  66  67  70
+  69  75  77 116  83  80  74  68 109 108  95  86  84  85  87 112  65  54
+  46  52  48 117  47  45  44 102  93 111 110  92  94 122  27 121  32  24
+  28  31  96 126 106  64 124  88  91  98 103 125  81  82  62 118 101 100
+  97]</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>15539</v>
+        <v>167124.6289306764</v>
       </c>
     </row>
     <row r="190">
@@ -4411,17 +4947,23 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>[40 33  2 21 15  0  8 39 22 13 24 12 10 11 14 32 45 37  7 30 43 17 35  6
- 27 19 46 20 38 47  4 28  1 41  9 23 31 25  3 34 44 29  5 36 18 26 42 16]</t>
+          <t>[112  63  57  99  90  60  61  59  89 115  58   2   9 114  12 119   6  49
+  51 123  65  54  55   4 120  50   1   0 104 113  10   8  23   5 105  14
+ 107  22   3  21  18   7  71  20  16  19  15  36  35  34  56  53  46  48
+  52 117  47  45  93  44  43 102  39  40  13  11  30  26  29  42  33  38
+  41  37  25  78  17  66  72  73  76  67  70 124  88  91  64  98 103 109
+  69  68  74  75  77  79 116  83  80 125  81  82  24  32 121  27  28  31
+ 122  94  92 111 110 126  96 108  95  84  85  86  87 118  62 101 100  97
+ 106]</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15542</v>
+        <v>167373.0549515756</v>
       </c>
     </row>
     <row r="191">
@@ -4432,17 +4974,23 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>[45 32 14 11 19 35 17 43 30 37  8 39 10 22 46 12 13 24 20  6 27  5 29 36
- 18 26 42 16  0  7 21  2 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[ 68  69  70  67  74  75  77 116  83  80 125  81  82  73  72  66   7  71
+  17  76  78  79  20  16  18  21   3  22  23 107  19  14 105   5   8  10
+ 113 104   6   0  15  11  30  26  29  13  40  35  36  34  42  33  25  37
+  38  41  24  32  28  31 121  27  39   1 119   2 115  59  58  61  60  89
+  90  57  63  99   9 114  12  49  50 120   4  51 123  55  56  53  43  44
+ 102  47  52  46  54  65 112 124 109 108  95  86  87  85  84 118  62 101
+ 100  96 122  94  92 117  48  45  93 111 110  64  88  91 103  98 126 106
+  97]</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>15705</v>
+        <v>167951.1118331221</v>
       </c>
     </row>
     <row r="192">
@@ -4453,17 +5001,23 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>[22 10 12 13 24 33  2 21 39 14 11 46 20 38 31 47  4 28 40 15  0  8 37 45
- 32 19 35 17 43 30  6 27 29  5 36 18 26 42 16  7 41 23  9 25  3  1 34 44]</t>
+          <t>[ 55   4 120  56  53  50  49  51 123  54  46  52  48 117  47  45  93  44
+  43 102   1  12 114   9 119   6   0  15  36  34  35  40  13  11 104 113
+ 105   5  14 107  23  10   8   2  99  57  63  90  60  89 115  59  61  58
+  22   3  21  19  16  20  18  71   7  17  76  30  29  42  39  33  38  41
+  37  25  26  78  79  77  75  73  72  66  65 112 124  88  91  64  98 103
+  70  67  69  68  74 116  83  80  24  32 121  27  28  31  94  92 122  96
+ 126 110 111 106 125  81  82  95 108 109  84  85  86  87 118  62 101 100
+  97]</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>15725</v>
+        <v>168018.2215179057</v>
       </c>
     </row>
     <row r="193">
@@ -4474,17 +5028,1616 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>48 miast</t>
+          <t>127 miast</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>[43 17  6 35 27 30 45 32 14 11 19 37  8 39  0  7 21  2 10 46 12 22 13 24
- 20 29  5 36 18 26 42 16 15 33 40 28  4 47 38 31 23 41  9 25  3  1 34 44]</t>
+          <t>[ 50   1  49 120  56  53  55   4  51 123 114  12 119   6   0  15  36  34
+  35  40  13  11 104 113 105  14   5 107  19  23  22   3  21  16  20  18
+  10   8   9   2  99  57  63  90  60  89 115  59  61  58   7  71  17  76
+  30  29  42  39  43  44 102  47  52  46  48 117  45  93  54  65 112 124
+  88  91  64  33  38  41  37  25  26  78  79  77  75  73  72  66  67  70
+  69  68  74 116  83  80  24  32 121  27  28  31 122  94  92 126  96 125
+  81  82  95 108 109  84  85  86  87 103  98 111 110 106  97 100 101  62
+ 118]</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>16557</v>
+        <v>168148.5606402838</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>[ 46  48  52 117  47  45  93  53  56  55 123  51   4 120  50  49 114  12
+   1  15   0   6 119   9  54  65 112  63  57  99   2 113 104 105   5  14
+ 107  23  10   8  22   3  21  19  36  34  43  44 102  39  35  40  13  11
+  29  42  33  38  41  37  25  26  30  16  20  18  71   7  89 115  60  90
+  61  59  58  66  72  73  17  76  78  79  77  75  67  70  69  68  74 116
+  83  80  24  32 121  27  28  31  94  92 111 110  64  88  91 124  98 103
+ 109 108  95  86  84  85  87 118 125  81  82 122  96 126 106  97 100 101
+  62]</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>168155.0230578737</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>[105   5  14 107  23  22   3  21  19  16  20  18  71   7   8  10 113 104
+   6   0  15  13  11  30  26  29  40  36  35  34   1 119   9   2  12 114
+  49  50 120   4  55  51 123  56  53  43  39  42  33  38  37  25  78  17
+  76  73  72  66 115  89  59  61  60  90  99  57  63  58  67  70  69  75
+  77  79 116  83  80  74  68 108 109  95  86  84  85  87 118 125  81  82
+  24  32 121  27  28  31  41 102  44  52  46  48 117  47  45  54  65 112
+ 124  88  91  64  98 103  93  92  94 122  96 126 110 111 106  97 100 101
+  62]</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>168274.3191653856</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>[ 70  69  67  72  73  66   7  71  18  22   3  21  20  17  76  75  74  68
+ 108  95 109  84  85  86  87  58  59 115  89  61  60  90   2   8  10  23
+ 107  16  19   5 105  14 113 104   6 119   9 114  12   0  15  11  30  78
+  79  77 116  83  80 125  81  82  26  29  13  40  36  35  34   1  49  99
+  57  63 112 124  88  91 103  98  64  65  51   4 120  50  56  55 123  54
+  46  52  48 117  47  53  43  39  42  33  38  37  25  24  32  28  31 121
+  27  41 102  44  45  93  92  94 122  96 126 110 111 106 118  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>168325.8389177562</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>[ 58  61  59 115  89  60  90  57  63  99   2  10   8   7  66  72  73  71
+  18  22  23   3  21 107   5 105 113 104  14  19  16  20  17  76  67  70
+  69  68  74  75  77  78  79  30  11   6 119   9 114  12  49   4  51 123
+  55 120  50   1   0  15  13  40  36  35  34  56  53  43  44 102  39  42
+  29  26  25  37  38  33  41  24  32 121  27  28  31 116  83  80 125  81
+  82 109 108  95  86  84  85  87 103 124 112  65  54  46  52  48 117  47
+  45  93 111 110  64  88  91  98  94 122  96  92 126 106 118  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>168522.8791855933</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>[118  62  95 108  87  86  85  84 109  68  69  70  67  74  75  77  83  80
+ 125  81  82 116  76  73  72  66   7  71  17  20  16  18  21   3  22  23
+ 107  19  78  79  30  26  11  14 105   5   8  10 113 104   6   0  15  13
+  29  25  37  38  33  42  40  35  36  34   1 119   2 115  59  58  61  60
+  89  90  57  63  99   9 114  12  49  50 120   4  51 123  55  56  53  39
+  41  24  32  28  31 121  27 122  96  94  43  44 102  47  52  46  54  65
+ 112 124 103  91  88  98  64  48 117  45  93  92 126 101 100  97 110 111
+ 106]</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>168638.0105371945</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>[ 59  61  60 115  89  90  58  57  63  99   2  10   8  23  22   7  71  18
+   3  21 107   5 105 113 104  14  19  16  20  66  72  73  17  76  67  70
+  69  68  74  75  77  78  79  30  11   6 119   9 114  12  49   4  51 123
+  55 120  50   1   0  15  13  40  36  35  34  56  53  43  44 102  39  42
+  29  26  25  37  33  38  41  24  32 121  27  28  31 116  83  80 125  81
+  82 109 108  95  86  84  85  87 103 124 112  65  54  46  52  48 117  47
+  45  93 111 110  64  88  91  98  94 122  92 126  96 118  62 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>168816.7501530221</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>[ 47 117  52  48  45  46  93  53  56 120  55 123  51   4  50   1  49  12
+ 114   9 119   6   0  15  34  43  44 102  39  35  36  40  13  11  29  42
+  33  38  41  37  25  26  30 104 113 105  14   5 107  19  23  10   8   2
+  99  54  65 112  63  57  90  60  89 115  59  61  58  22   3  21  16  20
+  18  71   7  17  76  78  79  24  32 121  27  28  31  94  92 126 110 111
+  64  88  91 124  66  72  73  67  70  69  75  77 116  83  80  74  68 109
+ 108  95  86  84  85  87 103  98 122  96 125  81  82  62 118 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>168841.9420077325</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>[109 108  95  86  84  85  87  70  69  68  67  72  66  73  17  76  71   7
+  18  22   3  21  20  16  23   8  10 115  59  58  61  60  89  90  57  63
+  99   2 113   5 107  19  14 105 104   6 119   9 114  12   0  15  11  30
+  78  75  74  77 116  83  80 125  81  82  79  26  29  13  40  36  35  34
+   1  49   4  51 123  55 120  50  56  53  43  39  42  33  38  37  25  24
+  32  28  31 121  27  41 102  44  46  54  65 112 124 103  91  88  98  64
+  48  52 117  47  45  93 111 110  92  94 122  96 118  62 101 100 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>168927.3085355856</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>[  8  10  23  22   3  21  18   7  71   5 105 107  14 113 104   6 119   9
+   2  89 115  59  61  60  90  57  63  99 114  12   0  15  19  16  20  17
+  76  73  72  66  58  49   1  50 120   4  51 123  55  56  36  35  13  11
+  30  26  29  40  34  39  42  33  38  37  25  78  79  77  75  67  70  69
+  68  74 116  83  80 125  81  82  24  32 121  27  28  31  41  43  53  44
+ 102  52  46  54  65 112 124  88  91  98  64  48 117  47  45  93  92  94
+ 122  96 126 110 111 109 108  95  86  84  85  87 103 118  62 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>168934.3509630319</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>[ 13  40  29  11  30  26  25  37  38  33  42  35  36  15   0   6 104  14
+ 105   5 107  19  16  20  21   3  23  22  18  71   7   8  10 113 119  12
+   1  34  39  41  24  32 121  27  28  31  79  78  76  17  73  72  66   2
+   9 114  49  50  56 120   4  55  51 123  53  43  44 102  47  52  46  48
+ 117  45  93  54  65  99  57  63  90  89 115  59  60  61  58  67  75  77
+ 116  83  80  74  68  69  70 109 108  95  86  84  85  87 125  81  82 122
+  94  92 126  96 112 124  88  91  64  98 103 118  62 101 100  97 110 111
+ 106]</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>169092.4866101148</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>[ 69  68  70  67  72  73  66   7  71  17  76  75  74  77 116  83  80 125
+  81  82  78  79  20  16  18  21   3  22  23 107  19   5 105  14   8  10
+ 113 104   6 119   2 115  59  58  61  60  89  90  57  63  99   9 114  12
+   0  15  11  30  26  29  13  40  36  35  34   1  49  50 120   4  51 123
+  55  56  53  43  39  42  33  38  25  37  24  32  28  31 121  27  41 102
+  44  46  54  65 112 124 109 108  95  86  87  85  84 118  62 101 100  96
+ 122  94  92  47  52  48 117  45  93 111 110  64  88  91 103  98 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>169117.4139944672</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>[ 95 108  86  87  85  84 109  69  68  74  67  70  72  73  66   7  71  17
+  76  75  77 116  83  80 125  81  82 118  62  78  79  20  16  18  21   3
+  22  23 107  19   5 105  14   8  10 113 104   6 119   2 115  59  58  61
+  60  89  90  57  63  99   9 114  12   0  15  11  30  26  29  13  40  35
+  36  34   1  49  50 120   4  51 123  55  56  53  43  39  42  33  25  37
+  38  41  24  32  28  31 121  27 122  94 102  44  46  54  65 112 124 103
+  91  88  98  64  52  48 117  47  45  93  92  96 126 110 111 106 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>169236.9713215466</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>[ 53  56 120  55   4  50   1  49  12 114 119   6   0  15  34  43  44 102
+  39  35  36  40  13  11  29  42  33  38  41  37  25  26  30 104 113 105
+  14   5 107  19  23  22   3  21  16  20  18  10   8   9  51 123  46  52
+  47 117  48  45  93  54  65  99   2  89 115  59  60  90  57  63  61  58
+   7  71  17  76  78  79  24  32 121  27  28  31  94  92 122  96 126 110
+ 111 112  64 124  88  91  98  66  72  73  67  75  77 116  83  80  74  69
+  70  68 109 108  95  86  84  85  87 103 125  81  82  62 118 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>169292.3381031411</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>[ 77  75 116  83  80  74  76  78  79  17  73  72  67  69  68  70  66  71
+  20  16  21   3  18  22  23 107  19  14 105   5   7   8  10 113 104  11
+  30  26  25  37  38  33  29  13  40  35  36  15   0   6 119  12 114   9
+   2  89 115  59  61  60  90  58  57  63  99  49   1  34  42  41  24  32
+  28  31 121  27  39  50  56 120   4  55  51 123  53  43  44 102  94 122
+  96 125  81  82  95 108 109  84  85  86  87 118  62 101 100  92  47  52
+  46  48 117  45  54  65 112 124  88  91 103  98  64  93 111 110 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>169345.7025267998</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>[ 60  61  59 115  89  90  57  63  99   2   9 119  10   8  23  22   3  21
+  18   7  71  66  58 113   5 105  14 107  19  16  20 104   6  12 114  49
+   4  51 123  55 120  50   1   0  15  13  11  30  26  29  40  36  35  34
+  56  53  43  44 102  39  42  33  38  37  25  17  72  73  76  78  79  77
+  75  67  70  69  68  74 116  83  80 125  81  82  24  32 121  27  41  28
+  31 112 124  88  91  98  64  65  54  46  52  48 117  47  45  93 111 110
+  92  94 122  96 126 106 109 108  95  86  84  85  87 103 118  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>169434.6947085973</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>[ 42  33  38  41  39  35  36  40  29  13  11  30  26  25  37  34  15   0
+   1  50  56  53  43 102  44 120  49  12   6 104  14 105   5 107  19  16
+  20  21   3  23  22  18  71   7 113 119 114   9  10   8   2  99   4  55
+  51 123  46  52  47 117  48  45  93  92  94 122  27 121  32  24  28  31
+  79  78  76  17  73  72  66 115  89  59  60  90  57  63  61  58  67  75
+  77 116  83  80  74  68  69  70 109 108  95  86  84  85  87 125  81  82
+  96 126  54  65 112 124  88  91  64 111 110 106  98 103 118  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>169697.5461287831</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>[ 43  44 102  53  56  50   1  34  39  35  36  40  42  33  38  41  37  29
+  13  15   0   6  12  49 120  55   4  51 123  46  52  47 117  48  45  93
+  92  94 122  27 121  32  24  25  26  30  11 104 113 119 114   9   2  10
+ 105  14   5 107  19  16  20  21   3  23  22  18   8   7  71  17  76  78
+  79  77  75  73  72  66 115  89  99  57  63  90  60  59  61  58  54  65
+ 112 124  88  91  64 111 110 126  96  28  31 116  83  80  74  67  70  69
+  68 125  81  82  95 108 109  84  85  86  87 103  98 106  97 100 101  62
+ 118]</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>170170.6915149744</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>[ 93  45 117  47  52  48  46  53  44 102  43  56 120  55 123  51   4  50
+   1  49  12 114   9 119   6   0  15  34  36  35  39  42  33  41  38  37
+  40  13  29  11 104 113 105  14   5 107  19  23  10   8   2  99  54  65
+ 111 110  92  94 122 126 106  25  26  30  16  21   3  22  18  20  71   7
+  17  76  78  79  24  32 121  27  28  31  96  77  75  73  72  66  89 115
+  60  90  57  63 112  64  88  91 124  61  59  58  67  70  69  68  74 116
+  83  80 125  81  82  95 108 109  84  85  86  87 103  98 118  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>170184.0735516813</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>[ 75  77 116  83  80  74  68  69  67  73  76  17  72  66  71  18  20  16
+  21   3  22   7  23 107  19  78  79  30  26  11  13  29  40  14 105   5
+   8  10 113 104   6   0  15  36  35  42  33  25  37  38  41  24  32  28
+  31 121  27  39  34   1 119   9   2  89 115  59  61  60  90  58  70 109
+ 108  95  86  87  85  84 118 125  81  82  62 101 100  96 122  94  43  50
+  12 114  49   4 120  56  53  44 102  55  51 123  99  57  63 112  65  54
+  46  52  48 117  47  45  93  92 126 110 111  64 124  88  91 103  98 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>170428.703173273</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>[  1  50  49  12 114 119   6   0  15  36  35  34  40  13  11 104 113 105
+  14   5 107  19   3  23  22  21  16  20  18  10   8   9   2  99   4 120
+  56  53  43  44 102  39  42  33  29  26  30  25  37  38  41  55  51 123
+  54  46  52  48 117  47  45  93  65  63  57  90  60  89 115  59  61  58
+   7  71  17  76  78  79  77  75  73  72  66  67  70  69  68  74 116  83
+  80  24  32 121  27  28  31 122  94  92 126  96 125  81  82  95 108 109
+  84  85  86  87 112 124  88  91  64  98 103 111 110 106  97 100 101  62
+ 118]</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>170482.4793794696</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>[ 67  72  73  66  70  69  68  74  75  76  17  71   7  18  20  16  21   3
+  22  23 107  19   5 105  14   8  10 113 104   6 119   2 115  89  59  61
+  58  60  90  57  63  99   9 114  12   0  15  11  78  79  77 116  83  80
+ 125  81  82  30  26  29  13  40  36  35  34   1  49  50 120   4  51 123
+  55  56  53  43  39  42  33  38  25  37  41  24  32  28  31 121  27 122
+  94 102  44  52  46  54  65 112 124 109 108  95  86  84  85  87 118  62
+ 101 100  96  92  47 117  48  45  93 111 110  64  88  91 103  98 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>170524.4856235559</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>[110 111  93  45 117  47  48  52  46  54 123  55 120  56  53  44 102  43
+  50   4  51  65 112  63  57  99 114  49   1  34  39  35  36  15   0  12
+ 119   9   6 104 113 105  14   5 107  19  13  40  42  33  41  38  37  29
+  11  30  26  25  92 126  94 122  96  27 121  32  24  28  31  79  78  16
+  21   3  23  10   8   2  89 115  60  90  61  59  58  22  18  20  71   7
+  17  76  73  72  66  67  70  69  75  77 116  83  80  74  68 109 124  64
+  88  91  98 103  84  85  86  87 108  95 125  81  82 106  97 100 101  62
+ 118]</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>170634.8207803117</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>[ 14 105   5 107  19   3  21  23  22  18  20  16 104 113  10   8   7  71
+  17  76  11  13  15   0   6 119  12 114   9   2  89 115  59  61  60  90
+  99  57  63  49   1  50  36  35  40  29  30  26  78  79  25  37  38  33
+  42  34  39  41  43  56 120   4  55  51 123  53  44 102  47  52  46  48
+ 117  45  54  65 112  58  66  72  73  67  75  77 116  83  80  74  69  70
+  68 108  95 109  84  85  86  87 118 125  81  82  24  32 121  27  28  31
+ 122  94  92  93 111 110  64 124  88  91  98 103  62 101 100  96 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>170759.8659635059</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>[ 98  91  88 124 112  64  65  54 123  51  63  57  90  60  61  59  58 115
+  89  99   2   9 114  12 119   6 113  10   8  23  22   3   5 105 104  14
+ 107  21  18   7  71  66  72  73  17  20  16  19   0  49   4  55 120  50
+   1  15  36  35  34  56  53  46  48  52 117  47  45  93 111 110  44  43
+ 102  39  40  13  11  30  26  29  42  33  38  41  37  25  78  76  67  70
+ 103 109  84  85  86  87 108  95  69  68  74  75  77  79 116  83  80 125
+  81  82  24  32 121  27  28  31  94  92 126 122  96 106 118  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>170882.8292310816</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>[ 10   8  23  22   3   5 105 113 104  14 107  21  18   7  71  20  16  19
+   6 119   9   2  89 115  59  61  60  90  99  57  63 114  12   0  15   1
+  49  50 120   4  51 123  55  56  53  34  36  35  13  11  30  26  29  40
+  42  33  38  37  25  78  17  76  73  72  66  58  67  70  69  75  77  79
+ 116  83  80  74  68 109 108  95  86  84  85  87 103 124 112  65  54  46
+  52  48 117  47  44  43  39  41  24  32 121  27  28  31 102  45  93  92
+  94 122  96 125  81  82  62 118  88  91  98  64 111 110 126 106  97 100
+ 101]</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>171200.9553747245</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>[113 104 105   5  14 107  23  22   3  21  19  16  20  18  10   8   6 119
+   9   2  12 114  49   0  15   1  50 120   4  51 123  55  56  36  35  13
+  11  40  29  30  26  78  17  71   7  66  72  73  76  79  25  37  33  42
+  34  39  38  41  43  53  44 102  99  57  63  90  89 115  59  60  61  58
+  67  70  69  75  77 116  83  80  74  68 109 108  95  86  84  85  87 103
+ 124 112  65  54  46  52  48 117  47  45  93  92  94 122  27 121  32  24
+  28  31 125  81  82  96 126 110 111  64  88  91  98 118  62 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>171599.0911359138</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>[126  92  94 122  96  27 121  32  24  41  38  33  42  39 102  44  43  53
+  56  50  34  35  36  40  29  37  25  26  30  13  15   1 120  55  47  93
+  45 117  52  48  46 123  51   4  49  12 114   0   6 104 113 105  14  11
+  19 107   5  23   3  21  16  20  18  22  10 119   9   2   8   7  71  17
+  76  78  79  28  31  77 116  83  80  75  73  72  66 115  89  99  57  63
+  54  65 111 110 106 112  90  60  59  61  58  67  70  69  74  68 125  82
+  81 101 100  97  64  88 124  91  98 103 109 108  95  86  84  85  87 118
+  62]</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>171676.9632187843</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>[ 52  48 117  47  46  45  93  53  56 120  55 123  51   4  49  50   1  12
+ 114   9 119   6   0  15  34  43  44 102  39  35  36  40  13  11 104 113
+ 105  14   5 107  23  10   8   2  99  54  65 112  63  57  90  60  89 115
+  59  61  58  22   3  21  19  16  20  18  71   7  17  76  30  29  42  33
+  38  41  37  25  26  78  79  24  32 121  27  28  31  94  92 126 110 111
+  64  88  91 124  98 103  66  72  73  67  70  69  75  77 116  83  80  74
+  68 109 108  95  86  84  85  87 118 125  81  82 122  96 106  97 100 101
+  62]</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>171718.2198796475</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>[ 40  13  29  42  35  36  34  39  33  38  37  25  26  30  11  15   0   6
+ 104  14 105   5 107  19  16  20  21   3  23  22  18  71   7 113 119  12
+   1  50  49 114   9  10   8   2  99   4 120  56  53  43  44 102  41  24
+  32 121  27  28  31  79  78  76  17  73  72  66 115  89  59  60  90  61
+  58  57  63  51  55 123  54  46  52  47 117  48  45  93  92  94 122  96
+  77  75 116  83  80  74  67  70  69  68 125  81  82  95 108 109  84  85
+  86  87 118  62 101 100  65 112 124  88  91  64  98 103 111 110 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>171975.0999600652</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>[  2   9 119 113  10   8  23   5 105 104   6  12 114  49  99  57  63  90
+  60  89 115  59  61  58   7  22   3 107  14  19  21  18  71  20  16  17
+  76  73  72  66   0  15   1  50 120   4  51 123  55  56  53  34  36  35
+  13  11  40  29  30  26  78  79  77  75  67  70  69  68  74 116  83  80
+  25  42  33  38  37  41  39  43  44 102  46  54  65 112 124  88  91  98
+  64  48  52 117  47  45  93 111 110  92  94 122  27 121  32  24  28  31
+ 125  81  82 108 109  84  85  86  87  95 118  62 103  96 126 106  97 100
+ 101]</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>172072.4522351402</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>[ 48  52 117  47  45  46  54 123  55 120  56  53  44 102  43  50   4  51
+  49 114  12   1  34  36  35  39  42  33  38  41  40  15   0   6 119   9
+  99  65  93 111 110  92  94 122  37  29  13  11 104 113 105  14   5 107
+  23  10   8   2  57  63  90  60  89 115  59  61  58 112  64  88  91 124
+  22   3  21  19  16  20  18  71   7  17  76  30  26  25  24  32 121  27
+  28  31  79  78  73  72  66  67  70  69  75  77 116  83  80  74  68 109
+ 108  95  86  84  85  87 103  98 126  96 125  81  82  62 118 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>172751.3359836382</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>[  9 119 114  12  49   6 113 104 105   5  10   2  99  57  63  90  60  89
+ 115  59  61  58   8  23  22   3 107  14   0  15   1  50 120   4  51 123
+  55  56  53  34  36  35  40  13  11  19  21  18   7  71  20  16  17  76
+  73  72  66  67  70  69  75  78  79  30  26  29  42  33  39  43  44 102
+  46  54  65 112 124  88  91  64  48  52 117  47  45  93 111 110  92  94
+  41  38  37  25  24  32 121  27  28  31  77 116  83  80  74  68 109 108
+  95  86  84  85  87 103  98 122  96 126 106 125  81  82  62 118 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>172983.2663700243</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>[ 56  53 120  50   1  49   4  55 123  51 114  12 119   6   0  15  36  34
+  35  40  13  11  29  42  39  43  44 102  47  52  46  48 117  45  93  54
+  65   9 113 104 105  14   5 107  19  23  22   3  21  16  20  18  10   8
+   2  99  57  63  90  60  89 115  59  61  58   7  71  17  76  30  26  33
+  38  41  37  25  24  32 121  27  28  31  79  78  73  72  66  67  75  77
+ 116  83  80  74  69  70  68 109 108  95  86  84  85  87 112 124  88  91
+  64 111 110  92  94 122  96 126 106  98 103 125  81  82  62 118 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>173041.1059099439</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>[ 65  54 123  51   4  55 120  49 114  12   9  99  63  57 112  90  60  61
+  59  89 115   2 119   6   0   1  50  56  53  46  48  52 117  47  45  93
+  44  43 102  34  36  15 104 113  10   8   5 105  14 107  23  22   3  21
+  18   7  71  20  16  19  11  13  40  35  39  42  33  29  30  26  25  37
+  38  41  78  17  76  73  72  66  58 124  88  91  64  98 103  70  67  69
+  68  75  77  79  24  32 121  27  28  31 116  83  80  74 109 108  95  86
+  84  85  87 118 125  81  82  94  92 111 110 126 122  96 106  97 100 101
+  62]</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>173417.4154750242</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>[ 51 123  55   4 120  49 114  12   9 119   6   1  50  56  53  46  54  65
+  99  57  63  90  60  89   2 113 104   0  15  36  35  34  43  44 102  52
+  48 117  47  45  93 111 110 112  61  59 115  10   8   5 105  14 107  23
+  22   3  21  19  16  20  18   7  71  17  76  11  13  40  29  42  39  33
+  38  41  37  25  26  30  78  79  73  72  66  58 124  88  91  64  98 103
+  70  67  75  77 116  83  80  74  69  68 109 108  95  86  84  85  87 118
+ 125  24  32 121  27  28  31  94  92 122  96 126 106  82  81  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>173530.3850691635</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>[103 124  88  91  98 112  63  57  90  60  61  58  59 115  89   2  99   9
+ 119  10   8   7  66  72  70 109  84  85  86  87 108  95  69  67  73  71
+  18  22  23   3  21  20  16 107   5 105 113 104  14  19  17  76  75  68
+  74  77  78  79  30  11   6  12 114  49   4  51 123  65  54  55 120  50
+   1   0  15  13  40  36  35  34  56  53  43  44 102  39  42  29  26  25
+  37  38  33  41  24  32 121  28  31 116  83  80 125  81  82 118  62  27
+ 122  94  46  52  48 117  47  45  64  93 111 110  92 126  96 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>173590.9265273374</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>[123  51  55   4 120  56  53  50  49 114  12 119   9  99  57  63  65  54
+  46  52  48 117  47  45  93  44  43 102   1   0   6 104 113 105   5  14
+ 107  23  10   2  89 115  60  90  61  59  58   8  22   3  21  19  15  36
+  34  35  40  13  11  29  42  39  33  38  41  37  25  26  30  16  20  18
+   7  71  17  76  73  72  66  67  70  69  75  78  79  77 116  83  80  74
+  68 112  64  88 124  91  98 103 109 108  95  86  84  85  87 118 125  24
+  32 121  27  28  31  94  92 126 122  96 111 110 106  82  81  62 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>173657.9657560756</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>[120   4  55  56  50  49  12 114   1  15   0   6 119   9  51 123  53  43
+  44 102  34  36  35  40  13  11 104 113 105  14   5 107  23  10   8   2
+  99  57  63  90  60  89 115  59  61  58  22   3  21  19  16  20  18  71
+   7  17  76  30  29  42  39  33  38  41  37  25  26  78  79  77  75  73
+  72  66  67  70  69  68  74 116  83  80  24  32 121  27  28  31  94  92
+  47  52  46  48 117  45  54  65 112 124  88  91  64  93 111 110 126 122
+  96 125  81  82  95 108 109  84  85  86  87 103  98 106  97 100 101  62
+ 118]</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>174492.2434514796</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>[ 79  78  30  26  25  37  38  33  29  11  13  40  35  36  15   0  19  16
+  20  17  76  77  75 116  83  80  74  73  72  71  18  21   3 107  14 105
+   5  23  22   7   8  10 113 104   6 119  12 114   9   2  89 115  59  66
+  67  69  68  70  58  61  60  90  99  57  63  49   1  34  42  41  24  32
+  28  31 121  27  39  50  56 120   4  55  51 123  53  43  44 102  94 122
+  96 125  81  82  95 108 109  84  85  86  87 118  62 101 100  92  47  52
+  46  48 117  45  93  54  65 112 124  88  91  98  64 103 111 110 126 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>174621.2630804915</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>[ 85  84  86  87 108  95 109  70  69  68  67  72  73  66   7  71  18  22
+   3  21  20  17  76  75  74  83  80 116  77  78  79  16  19 107  23   8
+  10 115  59  58  61  60  89  90  57  63  99   2 113   5 105  14 104   6
+ 119   9 114  12   0  15  11  30  26  29  13  40  36  35  34   1  49   4
+  51 123  55 120  50  56  53  43  39  42  33  38  25  37  41  24  32  28
+  31 121  27 125  81  82 118  62 103 124  88  91  98 112  65  54  46  52
+  48 117  47  44 102  94 122  96  92  93  45  64 111 110 126 106 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>174816.9983198937</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>[ 18  21   3  22  23 107  19  16  20  71   7   8  10   5 105  14 104 113
+   6   0  15  11  13  40  29  30  26  17  76  73  72  66  67  70  69  75
+  78  79  77 116  83  80  74  68 115  89   2 119   9  12 114  49   1  50
+  36  35  34  42  33  38  37  25  41  39  43  56 120   4  51 123  55  99
+  57  63  90  60  59  61  58 112  65  54  46  53  44 102  47  52  48 117
+  45  93  92  94 122  24  32 121  27  28  31 125  81  82  95 108 109  84
+  85  86  87 118  62 101 100  96 126 110 111  64 124  88  91  98 103 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>174995.8985845718</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>[ 17  76  73  72  71  18  20  16  21   3  22  23 107  19  14 105   5   7
+   8  10 113 104   6   0  15  11  30  78  79  77  75  67  66  70  69  68
+  74 116  83  80 125  81  82  26  29  13  40  35  36  34   1 119   9   2
+  89 115  59  61  60  90  58  57  63  99 114  12  49  50 120   4  55  51
+ 123  56  53  43  39  42  33  38  37  25  24  32 121  28  31  27  41 102
+  44  47  52  46  48 117  45  54  65 112 124  88  91  98  64 109 108  95
+  86  84  85  87 118  62 101 100  96 122  94  92  93 111 110 126 106 103
+  97]</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>175199.7279041854</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>[ 78  79  30  26  11  13  29  40  35  36  15   0  19  16  20  17  76  73
+  72  71  18  21   3  22  23 107  14 105   5 104 113  10   8   7  66  67
+  75  77 116  83  80  74  68  69  70 115  89   2   6 119  12 114   9   1
+  34  42  33  25  37  38  41  39  24  32  28  31 121  27 122  94  43  50
+  49 120  56  53  44 102   4  55  51 123  99  57  63  90  60  59  61  58
+ 109 108  95  86  84  85  87 125  81  82  62 118 103 124 112  65  54  46
+  52  48 117  47  45  93  92 126  96 111 110  64  88  91  98 106  97 100
+ 101]</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>176154.8468016154</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>[ 34  35  36  40  13  15   0   1  50  56  53  43  39  42  33  38  41  37
+  29  11  30  26  25  24  32 121  27  28  31  79  78  19  14 104   6  12
+  49 120   4  55  51 123 114 119 113 105   5 107  23   3  21  16  20  22
+  18  71   7   8  10   9   2  99  57  63  90  60  89 115  59  61  58  66
+  17  76  73  72  67  75  77 116  83  80  74  68  69  70  44 102  47  52
+ 117  48  46  54  65 112 124  88  91  64  45  93  92  94 122  96 126 110
+ 111 106 125  81  82  95 108 109  84  85  86  87 118  62 101 100  97 103
+  98]</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>176224.4253965864</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>[ 84  85  86  87 108  95 109  70  69  68  67  72  73  66   7  71  18  22
+   3  21  20  17  76  75  74  83  80 116  77  78  79  16  23   8  10 115
+  59  58  61  60  89  90  57  63  99   2 113   5 107  19  14 105 104   6
+ 119   9 114  12   0  15  11  30  26  29  13  40  36  35  34   1  49   4
+  51 123  55 120  50  56  53  43  39  42  33  38  25  37  41  24  32  28
+  31 121  27 125  81  82 118  62 103 124  88  91  98 112  65  54  46  52
+  48 117  47  44 102  45  93 111 110  64  94 122  96  92 126 106 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>176291.587310381</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>[ 37  38  33  42  41  25  26  29  40  13  11  30  35  36  39  34  15   0
+   6 104  14  19  16  20  21   3 107 105   5  23  22  18  71  17  78  79
+  24  32 121  27  28  31  77 116  83  80  75  76  73  72   7   8  10 113
+ 119  12   1  50  56  53  43 102  44 120  49 114   9   2  89 115  59  60
+  90  99   4  55  51 123  46  52  47 117  48  45  93  94 122  96  92 126
+  54  65  57  63  61  58  66  67  70  69  74  68 125  81  82  95 108 109
+  84  85  86  87 118  62 101 100  97 110 111 112 124  88  91  64  98 103
+ 106]</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>176399.8280509984</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>[  0  15   6 104 113 105  14   5 107  19   3  23  22  21  16  20  18   8
+  10 119  12 114  49   1  50  36  35  40  13  11  29  42  34  39  33  38
+  37  25  26  30  78  79  17  71   7   2   9   4 120  56  53  43  44 102
+  55  51 123  99  57  63  90  89 115  59  60  61  58  66  72  73  76  75
+  77 116  83  80  74  67  70  69  68  41  24  32 121  27  28  31 122  94
+  92  47  52  46  48 117  45  54  65 112 124  88  91  64  93 111 110 126
+  96 125  81  82  95 108 109  84  85  86  87 103  98 118  62 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>176584.1625381864</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>[ 94 122  92 102  44  43  39  41  38  33  42  37  25  29  40  35  34  36
+  13  11  26  30  24  32 121  27  28  31  96 126  93  47 117  52  48  46
+  53  56  50   1  15   0   6 104  14 105   5 107  19  16  20  21   3  23
+  22 113 119  12  49 120  55   4  51 123 114   9   2  10   8  18  71   7
+  17  78  79  77 116  83  80  75  76  73  72  66 115  89  99  57  63  90
+  60  59  61  58  54  45 111 110 106  65 112 124  88  91  64  98  67  70
+  69  74  68 125  82  81 101 100  97  95 108 109  84  85  86  87 118  62
+ 103]</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>176955.1727343979</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>[ 21   3  22  18  20  16  19 107  23   5 105  14 104 113  10   8   7  71
+  17  76  73  72  66   2 119   6   0  15  11  13  40  29  30  26  78  79
+  77  75  67  70  69  68  74 116  83  80 125  81  82  25  37  38  33  42
+  35  36  34   1  12 114   9  49  50 120   4  55  51 123  99  89 115  59
+  61  60  90  57  63  58 112  65  54  56  53  43  39  41  24  32 121  27
+  28  31 122  94 102  44  52  46  48 117  47  45  93  92 126  96 109 108
+  95  86  84  85  87 118  62 101 100 124  88  91  98  64 103 111 110 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>177668.5015366111</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>[ 20  16  21   3  18  22  23 107  19  14 105   5  71   7  17  76  73  72
+  66   8  10 113 104   6   0  15  11  13  40  29  30  26  78  79  77  75
+  67  70  69  68  74 116  83  80 125  81  82  25  37  38  33  42  35  36
+  34   1 119   9   2  89 115  59  61  60  90  99 114  12  49  50 120   4
+  55  51 123  56  53  43  39  41  24  32 121  27  28  31 122  94 102  44
+  47  52  46  48 117  45  54  65  57  63  58 112 124  88  91  98  64  93
+  92 126  96 109 108  95  86  84  85  87 118  62 101 100 103 111 110 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>178191.0400744456</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>[ 30  26  29  11  13  40  35  36  42  33  38  37  25  79  78  16  20  19
+ 107  14 105   5  23   3  21  18  22  71  17  76  73  72   7   8  10 113
+ 104   0  15   6 119  12   1  34  39  41  24  32 121  27  28  31  77  75
+ 116  83  80  74  67  66   2   9 114  49  50  56 120   4  55  51 123  53
+  43  44 102  94 122  96  92  47  52  46  48 117  45  93  54  65  99  89
+ 115  59  61  60  90  57  63  58  70  69  68 125  81  82  95 108 109  84
+  85  86  87 118  62 101 100 126 110 111 112 124  88  91  64  98 103 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>179003.2550215774</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>[ 39  42  33  38  41  37  29  40  35  36  34  13  11  15   0   1  50  56
+  53  43 102  44 120  49  12   6 104  14 105   5 107  19  16  20  21   3
+  23  22 113 119 114   9   2  10   8  18  71   7  30  26  25  24  32 121
+  27  28  31  79  78  76  17  73  72  66 115  89  59  60  90  99   4  55
+  51 123  46  52  47 117  48  45  93  92  94 122  96 126  54  65  63  57
+  61  58  67  75  77 116  83  80  74  68  69  70 109 108  95  86  84  85
+  87 125  81  82  62 118 112 124  88  91  64 111 110 106  98 103 101 100
+  97]</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>179057.0128227731</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>[  5 105  14 107  23  22   3  21  19  16  20  18  71   7   8  10 113 104
+   6   0  15 119   9   2  12 114  49   1  50  36  13  11  30  26  29  40
+  35  34  39  42  33  38  37  25  78  17  76  73  72  66 115  89  59  61
+  60  90  99  57  63  58  67  70  69  75  77  79 116  83  80  74  68 108
+ 109  95  86  84  85  87   4 120  56  53  55  51 123  54  65 112 124  88
+  91  98  64  46  52  48 117  47  44  43 102  41  24  32 121  27  28  31
+ 122  94  92  93  45 111 110 126  96 125  81  82  62 118 103 101 100  97
+ 106]</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>179634.1581411992</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>[ 16  20  21   3  18  22  23 107  19  14 105   5 113 104  10   8  71   7
+  17  76  73  72  66  67  75  78  79  30  11  13  40  29  26  25  37  38
+  33  42  35  36  15   0   6 119   9   2  89 115  59  61  60  90  99 114
+  12  49   1  50  34  39  41  24  32 121  27  28  31  77 116  83  80  74
+  68  69  70  58  57  63   4 120  56  53  43  44 102  55  51 123  54  65
+ 112 124  88  91  98  64  46  52  48 117  47  45  93  92  94 122  96 125
+  81  82  95 108 109  84  85  86  87 118  62 101 100 126 110 111 106 103
+  97]</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>180168.6636802767</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>[ 33  38  42  41  37  25  29  40  35  36  39  34  13  11  30  26  79  78
+  19  14 105   5 107 104  15   0   1  50  56  53  43 102  44 120  49  12
+   6 113  23   3  21  16  20  18  22   8  10 119 114   9   2   7  71  17
+  76  73  72  66  67  75  77  24  32 121  27  28  31 122  94  92 126  96
+ 116  83  80  74  68  69  70 115  89  59  60  90  99   4  55  51 123  46
+  52  47 117  48  45  93  54  65  63  57  61  58 112 124  88  91  64 111
+ 110 106 125  81  82  95 108 109  84  85  86  87 118  62 101 100  97 103
+  98]</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>180341.1685252101</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>[ 19 107   3  21  16  20  18  22  23   5 105  14 104 113  10   8   7  71
+  17  76  78  79  30  11  13  40  29  26  25  37  38  33  42  35  36  15
+   0   6 119  12 114   9   2  89 115  59  61  60  90  99  57  63  49   1
+  50  34  39  41  24  32 121  27  28  31  77  75  73  72  66  67  70  69
+  68  74 116  83  80 125  81  82  58   4 120  56  53  43  44 102  55  51
+ 123  54  65 112 124  88  91  98  64  46  52  48 117  47  45  93  92  94
+ 122  96 126 110 111 106 109 108  95  86  84  85  87 118  62 101 100 103
+  97]</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>181337.4045840839</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>[ 25  37  38  33  42  29  26  30  11  13  40  35  36  34  39  41  24  32
+ 121  27  28  31  79  78  76  17  16  20  19 107  14 105   5 104   0  15
+   1  50  56  53  43 102  44 120  49  12   6 113  23   3  21  18  22  71
+   7   8  10 119   9 114   4  55  51 123   2  89 115  59  61  60  90  99
+  57  63  66  72  73  77 116  83  80  75  74  67  70  69  68 125  81  82
+ 122  94  92 126  96  47  52 117  48  46  54  65 112  58 124  88  91  64
+  45  93 111 110 106 109 108  95  86  84  85  87 118  62 101 100  97 103
+  98]</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>181753.1938156249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>[ 22   3  21  18  23 107   5 105  14  19  16  20  71   7   8  10 113 104
+   6 119   9   2  89 115  59  61  60  90  57  99 114  12   0  15  11  13
+  40  29  30  26  17  76  73  72  66  67  70  69  75  78  79  77 116  83
+  80  74  68  58  63  49   1  50  36  35  34  42  33  38  37  25  41  39
+  56 120   4  51 123  55  53  43  44 102  47  52  46  48 117  45  54  65
+ 112 124  88  91  98  64  93  92  94 122  27 121  24  32  28  31 125  81
+  82  95 108 109  84  85  86  87 118  62 101 100  96 126 110 111 106 103
+  97]</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>182832.490529495</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>NN</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>127 miast</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>[  7  71  18  22   3  21  20  16  23 107   5 105  14  19   8  10 113 104
+   6 119   2  89 115  59  61  60  90  66  72  73  17  76  78  79  30  11
+  13   0  15   1  12   9 114  49  50  36  35  40  29  26  25  37  38  33
+  42  34  39  41  24  32 121  27  28  31  77  75  67  70  69  68  74 116
+  83  80 125  81  82  58  57  63  99   4 120  56  55  51 123  54  65 112
+ 124  88  91  98  64  46  53  43  44 102  52  48 117  47  45  93  92  94
+ 122  96 126 110 111 109 108  95  86  84  85  87 118  62 101 100 103 106
+  97]</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>183911.7049587533</v>
       </c>
     </row>
   </sheetData>
